--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,120 +456,140 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Chronic Heart Failure</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Hypertension</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Primary Sclerosing Cholangitis</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cholesterol Gallstone Disease</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Chronic Enteropathies</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Ulcerative Colitis</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Acute Pancreatitis</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Idiopathic Inflammatory Bowel Disease</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Chronic Kidney Disease</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Nephrolithiasis</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Autoimmune Disease</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Diabetes Mellitus</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Cushing's Syndrome</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Alimentary Small Cell Lymphoma</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Cutaneous T‐cell Lymphoma</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Osteoarthritis</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Atopic Dermatitis</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Food Allergy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Glaucoma</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Diarrhea</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Acute Diarrhea</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Chronic Enteropathy</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Obesity</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Dysbiosis</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>HealthyDistance</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Diversity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>TotalScore</t>
         </is>
@@ -594,76 +614,88 @@
         <v>16.7</v>
       </c>
       <c r="F2" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="G2" t="n">
         <v>90</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>58.9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K2" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>61.1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>35.6</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>86.7</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>31.1</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>87.8</v>
       </c>
-      <c r="P2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>21.1</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AC2" t="n">
         <v>16.7</v>
       </c>
-      <c r="Z2" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="AE2" t="n">
         <v>40</v>
       </c>
-      <c r="AB2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>67.8</v>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="3">
@@ -685,76 +717,88 @@
         <v>67.8</v>
       </c>
       <c r="F3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="G3" t="n">
         <v>55.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>6.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K3" t="n">
         <v>77.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>95</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>95</v>
+      </c>
+      <c r="M3" t="n">
         <v>34.4</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>14.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>10</v>
       </c>
-      <c r="O3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
         <v>30</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>28.9</v>
       </c>
-      <c r="R3" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="V3" t="n">
         <v>22.2</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>63.3</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>80</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>41.1</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>6.7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="AB3" t="n">
         <v>42.2</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AC3" t="n">
         <v>42.2</v>
       </c>
-      <c r="Z3" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE3" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AF3" t="n">
         <v>15.6</v>
       </c>
-      <c r="AC3" t="n">
-        <v>76.7</v>
+      <c r="AG3" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -776,76 +820,88 @@
         <v>40</v>
       </c>
       <c r="F4" t="n">
+        <v>95</v>
+      </c>
+      <c r="G4" t="n">
         <v>47.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>95</v>
-      </c>
       <c r="H4" t="n">
+        <v>95</v>
+      </c>
+      <c r="I4" t="n">
         <v>82.2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K4" t="n">
         <v>47.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>47.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>56.7</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>11.1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>72.2</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="R4" t="n">
         <v>42.2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>45.6</v>
       </c>
-      <c r="R4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="V4" t="n">
         <v>50</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>31.1</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>82.2</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>53.3</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>58.9</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
         <v>48.9</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AC4" t="n">
         <v>61.1</v>
       </c>
-      <c r="Z4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="AE4" t="n">
         <v>46.7</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AF4" t="n">
         <v>70</v>
       </c>
-      <c r="AC4" t="n">
-        <v>51.1</v>
+      <c r="AG4" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="5">
@@ -858,84 +914,96 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>55.6</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>73.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
       </c>
       <c r="F5" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="G5" t="n">
         <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>62.2</v>
       </c>
       <c r="H5" t="n">
         <v>62.2</v>
       </c>
       <c r="I5" t="n">
-        <v>43.3</v>
+        <v>62.2</v>
       </c>
       <c r="J5" t="n">
-        <v>45.6</v>
+        <v>63.3</v>
       </c>
       <c r="K5" t="n">
-        <v>48.9</v>
+        <v>44.4</v>
       </c>
       <c r="L5" t="n">
         <v>45.6</v>
       </c>
       <c r="M5" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="O5" t="n">
         <v>82.2</v>
       </c>
-      <c r="N5" t="n">
-        <v>95</v>
-      </c>
-      <c r="O5" t="n">
-        <v>43.3</v>
-      </c>
       <c r="P5" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="R5" t="n">
         <v>44.4</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>34.4</v>
       </c>
-      <c r="R5" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V5" t="n">
         <v>87.8</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>37.8</v>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>87.8</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>32.2</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>53.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AB5" t="n">
         <v>52.2</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AC5" t="n">
         <v>14.4</v>
       </c>
-      <c r="Z5" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
         <v>61.1</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AG5" t="n">
         <v>95</v>
       </c>
     </row>
@@ -958,76 +1026,88 @@
         <v>41.1</v>
       </c>
       <c r="F6" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>82.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>56.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>92.2</v>
-      </c>
       <c r="J6" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>90</v>
+      </c>
+      <c r="L6" t="n">
         <v>26.7</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>40</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>66.7</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>56.7</v>
       </c>
-      <c r="O6" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="R6" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>87.8</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>95</v>
+      </c>
+      <c r="X6" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="n">
         <v>87.8</v>
       </c>
-      <c r="S6" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
         <v>25.6</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
         <v>5.6</v>
       </c>
-      <c r="AC6" t="n">
-        <v>61.1</v>
+      <c r="AG6" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="7">
@@ -1049,75 +1129,87 @@
         <v>18.9</v>
       </c>
       <c r="F7" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="G7" t="n">
         <v>55.6</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>27.8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K7" t="n">
         <v>20</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>63.3</v>
       </c>
-      <c r="K7" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N7" t="n">
         <v>28.9</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>51.1</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="O7" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="R7" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>57.8</v>
       </c>
-      <c r="R7" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>50</v>
+      </c>
+      <c r="V7" t="n">
         <v>70</v>
       </c>
-      <c r="T7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
         <v>46.7</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Y7" t="n">
         <v>48.9</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>77.8</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AB7" t="n">
         <v>15.6</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AC7" t="n">
         <v>42.2</v>
       </c>
-      <c r="Z7" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE7" t="n">
         <v>31.1</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
         <v>52.2</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AG7" t="n">
         <v>32.2</v>
       </c>
     </row>
@@ -1140,76 +1232,88 @@
         <v>63.3</v>
       </c>
       <c r="F8" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="G8" t="n">
         <v>44.4</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>33.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
         <v>42.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="O8" t="n">
         <v>56.7</v>
       </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="S8" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="V8" t="n">
         <v>52.2</v>
       </c>
-      <c r="P8" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>22.2</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>51.1</v>
       </c>
-      <c r="W8" t="n">
-        <v>5</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AB8" t="n">
         <v>63.3</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="Z8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>26.7</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
         <v>77.8</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12.2</v>
+      <c r="AG8" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="9">
@@ -1231,76 +1335,88 @@
         <v>94.40000000000001</v>
       </c>
       <c r="F9" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>16.7</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>13.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>41.1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="K9" t="n">
         <v>40</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>16.7</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
         <v>17.8</v>
       </c>
-      <c r="O9" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="R9" t="n">
         <v>80</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>22.2</v>
       </c>
-      <c r="R9" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="V9" t="n">
         <v>56.7</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>90</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>61.1</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>12.2</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>46.7</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AB9" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AC9" t="n">
         <v>86.7</v>
       </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>35.6</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AF9" t="n">
         <v>82.2</v>
       </c>
-      <c r="AC9" t="n">
-        <v>17.8</v>
+      <c r="AG9" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="10">
@@ -1322,76 +1438,88 @@
         <v>75.59999999999999</v>
       </c>
       <c r="F10" t="n">
+        <v>95</v>
+      </c>
+      <c r="G10" t="n">
         <v>7.8</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>8.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>93.3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K10" t="n">
         <v>82.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>93.3</v>
       </c>
-      <c r="K10" t="n">
-        <v>95</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>95</v>
+      </c>
+      <c r="N10" t="n">
         <v>26.7</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>42.2</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>24.4</v>
       </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
       <c r="Q10" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
         <v>10</v>
       </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
+        <v>95</v>
+      </c>
+      <c r="U10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="V10" t="n">
         <v>62.2</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="U10" t="n">
-        <v>95</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11.1</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>93.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB10" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AC10" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AD10" t="n">
         <v>92.2</v>
       </c>
-      <c r="AA10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
+      <c r="AE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="11">
@@ -1413,76 +1541,88 @@
         <v>85.59999999999999</v>
       </c>
       <c r="F11" t="n">
+        <v>95</v>
+      </c>
+      <c r="G11" t="n">
         <v>8.9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>28.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>51.1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K11" t="n">
         <v>8.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>33.3</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>47.8</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>5.6</v>
       </c>
-      <c r="O11" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="R11" t="n">
         <v>45.6</v>
       </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>30</v>
-      </c>
       <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="V11" t="n">
         <v>92.2</v>
       </c>
-      <c r="T11" t="n">
+      <c r="W11" t="n">
         <v>21.1</v>
       </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>5.6</v>
       </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>46.7</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AB11" t="n">
         <v>34.4</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AC11" t="n">
         <v>72.2</v>
       </c>
-      <c r="Z11" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>8.9</v>
       </c>
-      <c r="AB11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5</v>
+      <c r="AF11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="12">
@@ -1504,76 +1644,88 @@
         <v>8.9</v>
       </c>
       <c r="F12" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="G12" t="n">
         <v>76.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>66.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="I12" t="n">
-        <v>65.59999999999999</v>
-      </c>
       <c r="J12" t="n">
-        <v>23.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>22.2</v>
+        <v>23.3</v>
       </c>
       <c r="M12" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="O12" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>67.8</v>
       </c>
-      <c r="O12" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="R12" t="n">
         <v>72.2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="R12" t="n">
-        <v>70</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="V12" t="n">
         <v>58.9</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>27.8</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>67.8</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>36.7</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="AB12" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC12" t="n">
         <v>56.7</v>
       </c>
-      <c r="Z12" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AE12" t="n">
         <v>72.2</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AF12" t="n">
         <v>25.6</v>
       </c>
-      <c r="AC12" t="n">
-        <v>70</v>
+      <c r="AG12" t="n">
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1595,76 +1747,88 @@
         <v>6.7</v>
       </c>
       <c r="F13" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
+        <v>95</v>
+      </c>
+      <c r="H13" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>18.9</v>
       </c>
-      <c r="I13" t="n">
-        <v>95</v>
-      </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>76.7</v>
       </c>
       <c r="K13" t="n">
+        <v>95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>95</v>
+      </c>
+      <c r="M13" t="n">
         <v>30</v>
-      </c>
-      <c r="L13" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>12.2</v>
       </c>
       <c r="N13" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>87.8</v>
+        <v>12.2</v>
       </c>
       <c r="P13" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>93.3</v>
       </c>
-      <c r="R13" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>95</v>
+      </c>
+      <c r="V13" t="n">
         <v>40</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>72.2</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>35.6</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Y13" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>50</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="n">
         <v>61.1</v>
       </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE13" t="n">
         <v>42.2</v>
       </c>
-      <c r="AB13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>83.3</v>
+      <c r="AF13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1686,76 +1850,88 @@
         <v>80</v>
       </c>
       <c r="F14" t="n">
+        <v>90</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.6</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>23.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>47.8</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>17.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>51.1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>54.4</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>83.3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>62.2</v>
       </c>
-      <c r="O14" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="R14" t="n">
         <v>51.1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>20</v>
       </c>
-      <c r="R14" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
+        <v>70</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
         <v>77.8</v>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
         <v>40</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>46.7</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>7.8</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>93.3</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB14" t="n">
         <v>18.9</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AC14" t="n">
         <v>87.8</v>
       </c>
-      <c r="Z14" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE14" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AF14" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.9</v>
+      <c r="AG14" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="15">
@@ -1777,75 +1953,87 @@
         <v>44.4</v>
       </c>
       <c r="F15" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="G15" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>95</v>
-      </c>
       <c r="I15" t="n">
+        <v>95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>83.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>37.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>10</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>86.7</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>77.8</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>47.8</v>
       </c>
-      <c r="O15" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="R15" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q15" t="n">
-        <v>95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>87.8</v>
-      </c>
       <c r="S15" t="n">
+        <v>95</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="V15" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="V15" t="n">
-        <v>95</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z15" t="n">
         <v>27.8</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AB15" t="n">
         <v>86.7</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AC15" t="n">
         <v>36.7</v>
       </c>
-      <c r="Z15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF15" t="n">
         <v>12.2</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AG15" t="n">
         <v>95</v>
       </c>
     </row>
@@ -1868,75 +2056,87 @@
         <v>14.4</v>
       </c>
       <c r="F16" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="G16" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>80</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>34.4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>40</v>
+      </c>
+      <c r="K16" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>56.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>11.1</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>72.2</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>60</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>26.7</v>
       </c>
-      <c r="O16" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
       <c r="Q16" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
         <v>86.7</v>
       </c>
-      <c r="R16" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>73.3</v>
-      </c>
       <c r="T16" t="n">
-        <v>22.2</v>
+        <v>57.8</v>
       </c>
       <c r="U16" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="V16" t="n">
         <v>73.3</v>
       </c>
       <c r="W16" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="Z16" t="n">
         <v>43.3</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="AB16" t="n">
         <v>25.6</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AC16" t="n">
         <v>32.2</v>
       </c>
-      <c r="Z16" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE16" t="n">
         <v>31.1</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AF16" t="n">
         <v>18.9</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AG16" t="n">
         <v>52.2</v>
       </c>
     </row>
@@ -1950,85 +2150,97 @@
         <v>38.9</v>
       </c>
       <c r="C17" t="n">
-        <v>72.2</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>90</v>
+        <v>87.8</v>
       </c>
       <c r="E17" t="n">
         <v>27.8</v>
       </c>
       <c r="F17" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>87.8</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>38.9</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>86.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>58.9</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>53.3</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>40</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="O17" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="R17" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>63.3</v>
       </c>
-      <c r="R17" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>95</v>
+      </c>
+      <c r="V17" t="n">
         <v>67.8</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>53.3</v>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>63.3</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Y17" t="n">
         <v>80</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>12.2</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="AB17" t="n">
         <v>70</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AC17" t="n">
         <v>5.6</v>
       </c>
-      <c r="Z17" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE17" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AF17" t="n">
         <v>13.3</v>
       </c>
-      <c r="AC17" t="n">
-        <v>88.90000000000001</v>
+      <c r="AG17" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2050,76 +2262,88 @@
         <v>47.8</v>
       </c>
       <c r="F18" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G18" t="n">
         <v>33.3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>48.9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>23.3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>70</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>15.6</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="M18" t="n">
-        <v>95</v>
-      </c>
-      <c r="N18" t="n">
-        <v>95</v>
-      </c>
       <c r="O18" t="n">
-        <v>64.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="P18" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="R18" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>24.4</v>
       </c>
-      <c r="R18" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>16.7</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>46.7</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Y18" t="n">
         <v>22.2</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>66.7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AB18" t="n">
         <v>10</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AC18" t="n">
         <v>23.3</v>
       </c>
-      <c r="Z18" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AE18" t="n">
         <v>22.2</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AF18" t="n">
         <v>41.1</v>
       </c>
-      <c r="AC18" t="n">
-        <v>24.4</v>
+      <c r="AG18" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="19">
@@ -2141,76 +2365,88 @@
         <v>48.9</v>
       </c>
       <c r="F19" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="G19" t="n">
         <v>26.7</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>46.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>54.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>95</v>
-      </c>
       <c r="J19" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>95</v>
+      </c>
+      <c r="L19" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>86.7</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>41.1</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="R19" t="n">
         <v>50</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>24.4</v>
       </c>
-      <c r="R19" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>95</v>
-      </c>
       <c r="T19" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>95</v>
+      </c>
+      <c r="W19" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="U19" t="n">
-        <v>95</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y19" t="n">
         <v>31.1</v>
       </c>
-      <c r="W19" t="n">
-        <v>95</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AB19" t="n">
         <v>58.9</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AC19" t="n">
         <v>47.8</v>
       </c>
-      <c r="Z19" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AD19" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE19" t="n">
         <v>5.6</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AF19" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="AC19" t="n">
-        <v>17.8</v>
+      <c r="AG19" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="20">
@@ -2232,76 +2468,88 @@
         <v>80</v>
       </c>
       <c r="F20" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>33.3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>21.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>36.7</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K20" t="n">
         <v>12.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>26.7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>92.2</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>5.6</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>90</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>53.3</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="R20" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="U20" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>50</v>
+      </c>
+      <c r="X20" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Z20" t="n">
         <v>30</v>
       </c>
-      <c r="P20" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>40</v>
-      </c>
-      <c r="S20" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>50</v>
-      </c>
-      <c r="U20" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="V20" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>30</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AB20" t="n">
         <v>14.4</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AC20" t="n">
         <v>90</v>
       </c>
-      <c r="Z20" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AE20" t="n">
         <v>35.6</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="AC20" t="n">
-        <v>38.9</v>
+      <c r="AG20" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="21">
@@ -2314,7 +2562,7 @@
         <v>38.9</v>
       </c>
       <c r="C21" t="n">
-        <v>57.8</v>
+        <v>55.6</v>
       </c>
       <c r="D21" t="n">
         <v>32.2</v>
@@ -2323,75 +2571,87 @@
         <v>65.59999999999999</v>
       </c>
       <c r="F21" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="G21" t="n">
         <v>13.3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>25.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>30</v>
       </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" t="n">
         <v>52.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>76.7</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>63.3</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>41.1</v>
       </c>
-      <c r="O21" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="R21" t="n">
         <v>36.7</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>15.6</v>
       </c>
-      <c r="R21" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="T21" t="n">
-        <v>5</v>
-      </c>
       <c r="U21" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
         <v>15.6</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
         <v>13.3</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>62.2</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>5.6</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC21" t="n">
         <v>27.8</v>
       </c>
-      <c r="Z21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>13.3</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AF21" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AG21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2405,7 +2665,7 @@
         <v>38.9</v>
       </c>
       <c r="C22" t="n">
-        <v>55.6</v>
+        <v>53.3</v>
       </c>
       <c r="D22" t="n">
         <v>47.8</v>
@@ -2414,75 +2674,87 @@
         <v>24.4</v>
       </c>
       <c r="F22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G22" t="n">
         <v>52.2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>87.8</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>21.1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" t="n">
         <v>66.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>24.4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>38.9</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>18.9</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>61.1</v>
       </c>
-      <c r="O22" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="R22" t="n">
         <v>54.4</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>47.8</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="U22" t="n">
         <v>47.8</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>43.3</v>
       </c>
-      <c r="T22" t="n">
+      <c r="W22" t="n">
         <v>35.6</v>
       </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>46.7</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
         <v>46.7</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>38.9</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AB22" t="n">
         <v>37.8</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AC22" t="n">
         <v>25.6</v>
       </c>
-      <c r="Z22" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AE22" t="n">
         <v>51.1</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AF22" t="n">
         <v>27.8</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AG22" t="n">
         <v>41.1</v>
       </c>
     </row>
@@ -2505,76 +2777,88 @@
         <v>70</v>
       </c>
       <c r="F23" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="G23" t="n">
         <v>51.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>71.09999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>71.09999999999999</v>
       </c>
       <c r="I23" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="K23" t="n">
         <v>46.7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>20</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>24.4</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>83.3</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>35.6</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>7.8</v>
       </c>
-      <c r="O23" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="R23" t="n">
         <v>21.1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>55.6</v>
       </c>
-      <c r="R23" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="V23" t="n">
         <v>72.2</v>
       </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>46.7</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>53.3</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>10</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="AB23" t="n">
         <v>76.7</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AC23" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="Z23" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AE23" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AF23" t="n">
         <v>43.3</v>
       </c>
-      <c r="AC23" t="n">
-        <v>54.4</v>
+      <c r="AG23" t="n">
+        <v>56.7</v>
       </c>
     </row>
     <row r="24">
@@ -2590,81 +2874,93 @@
         <v>6.7</v>
       </c>
       <c r="D24" t="n">
-        <v>23.3</v>
+        <v>21.1</v>
       </c>
       <c r="E24" t="n">
         <v>82.2</v>
       </c>
       <c r="F24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G24" t="n">
         <v>40</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>6.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>67.8</v>
       </c>
       <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
         <v>82.2</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>52.2</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>92.2</v>
       </c>
-      <c r="O24" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="R24" t="n">
         <v>63.3</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>38.9</v>
       </c>
-      <c r="R24" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="V24" t="n">
         <v>63.3</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>61.1</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>58.9</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>33.3</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>23.3</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AC24" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="Z24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE24" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AF24" t="n">
         <v>28.9</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AG24" t="n">
         <v>44.4</v>
       </c>
     </row>
@@ -2687,76 +2983,88 @@
         <v>12.2</v>
       </c>
       <c r="F25" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G25" t="n">
         <v>72.2</v>
       </c>
-      <c r="G25" t="n">
-        <v>95</v>
-      </c>
       <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
         <v>76.7</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K25" t="n">
         <v>53.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>30</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>73.3</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>10</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>26.7</v>
-      </c>
-      <c r="N25" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>55.6</v>
       </c>
       <c r="P25" t="n">
         <v>76.7</v>
       </c>
       <c r="Q25" t="n">
+        <v>40</v>
+      </c>
+      <c r="R25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="S25" t="n">
         <v>55.6</v>
       </c>
-      <c r="R25" t="n">
-        <v>60</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="V25" t="n">
         <v>35.6</v>
       </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
         <v>20</v>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>56.7</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>70</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AB25" t="n">
         <v>92.2</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AC25" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="Z25" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE25" t="n">
         <v>82.2</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AF25" t="n">
         <v>55.6</v>
       </c>
-      <c r="AC25" t="n">
-        <v>73.3</v>
+      <c r="AG25" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="26">
@@ -2778,76 +3086,88 @@
         <v>20</v>
       </c>
       <c r="F26" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G26" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>60</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K26" t="n">
         <v>57.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>72.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>44.4</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>14.4</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>38.9</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="O26" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
+        <v>20</v>
+      </c>
+      <c r="R26" t="n">
         <v>66.7</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>73.3</v>
       </c>
-      <c r="R26" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="V26" t="n">
         <v>31.1</v>
       </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
         <v>40</v>
       </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
         <v>33.3</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>60</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AB26" t="n">
         <v>44.4</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AC26" t="n">
         <v>50</v>
       </c>
-      <c r="Z26" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AE26" t="n">
         <v>66.7</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AF26" t="n">
         <v>38.9</v>
       </c>
-      <c r="AC26" t="n">
-        <v>82.2</v>
+      <c r="AG26" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -2869,75 +3189,87 @@
         <v>55.6</v>
       </c>
       <c r="F27" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G27" t="n">
         <v>36.7</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>53.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K27" t="n">
         <v>51.1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>60</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>60</v>
-      </c>
-      <c r="M27" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="N27" t="n">
-        <v>87.8</v>
       </c>
       <c r="O27" t="n">
         <v>87.8</v>
       </c>
       <c r="P27" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="R27" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>43.3</v>
       </c>
-      <c r="R27" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="U27" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="V27" t="n">
         <v>8.9</v>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
         <v>46.7</v>
       </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
         <v>26.7</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Y27" t="n">
         <v>44.4</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AB27" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AC27" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AD27" t="n">
         <v>62.2</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AE27" t="n">
         <v>24.4</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AF27" t="n">
         <v>23.3</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AG27" t="n">
         <v>45.6</v>
       </c>
     </row>
@@ -2960,76 +3292,88 @@
         <v>22.2</v>
       </c>
       <c r="F28" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G28" t="n">
         <v>62.2</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>37.8</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>25.6</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K28" t="n">
         <v>24.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="K28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>55.6</v>
-      </c>
       <c r="M28" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="O28" t="n">
         <v>32.2</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>83.3</v>
       </c>
-      <c r="O28" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="R28" t="n">
         <v>25.6</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>52.2</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>30</v>
+      </c>
+      <c r="W28" t="n">
         <v>8.9</v>
       </c>
-      <c r="S28" t="n">
-        <v>30</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="X28" t="n">
         <v>46.7</v>
       </c>
-      <c r="V28" t="n">
+      <c r="Y28" t="n">
         <v>57.8</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>54.4</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AB28" t="n">
         <v>13.3</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AC28" t="n">
         <v>10</v>
       </c>
-      <c r="Z28" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AD28" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AE28" t="n">
         <v>93.3</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AF28" t="n">
         <v>58.9</v>
       </c>
-      <c r="AC28" t="n">
-        <v>75.59999999999999</v>
+      <c r="AG28" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="29">
@@ -3051,76 +3395,88 @@
         <v>72.2</v>
       </c>
       <c r="F29" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G29" t="n">
         <v>20</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>18.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>87.8</v>
       </c>
-      <c r="I29" t="n">
-        <v>60</v>
-      </c>
       <c r="J29" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="L29" t="n">
         <v>54.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="n">
         <v>25.6</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>18.9</v>
       </c>
-      <c r="O29" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="R29" t="n">
         <v>55.6</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>28.9</v>
       </c>
-      <c r="R29" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
+        <v>95</v>
+      </c>
+      <c r="U29" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="V29" t="n">
         <v>8.9</v>
       </c>
-      <c r="T29" t="n">
+      <c r="W29" t="n">
         <v>70</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>18.9</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>25.6</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>83.3</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="AB29" t="n">
         <v>44.4</v>
       </c>
-      <c r="Y29" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD29" t="n">
         <v>93.3</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AE29" t="n">
         <v>16.7</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AF29" t="n">
         <v>67.8</v>
       </c>
-      <c r="AC29" t="n">
-        <v>35.6</v>
+      <c r="AG29" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="30">
@@ -3136,81 +3492,93 @@
         <v>27.8</v>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="F30" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="G30" t="n">
         <v>28.9</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>47.8</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>13.3</v>
       </c>
-      <c r="I30" t="n">
-        <v>71.09999999999999</v>
-      </c>
       <c r="J30" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="L30" t="n">
         <v>5.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>33.3</v>
       </c>
-      <c r="L30" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="O30" t="n">
         <v>5.6</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>26.7</v>
       </c>
-      <c r="O30" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="R30" t="n">
         <v>47.8</v>
       </c>
-      <c r="Q30" t="n">
-        <v>95</v>
-      </c>
-      <c r="R30" t="n">
-        <v>42.2</v>
-      </c>
       <c r="S30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T30" t="n">
-        <v>81.09999999999999</v>
+        <v>24.4</v>
       </c>
       <c r="U30" t="n">
-        <v>93.3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>90</v>
       </c>
       <c r="W30" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="X30" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z30" t="n">
         <v>80</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AB30" t="n">
         <v>56.7</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AC30" t="n">
         <v>38.9</v>
       </c>
-      <c r="Z30" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="AD30" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE30" t="n">
         <v>51.1</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AF30" t="n">
         <v>80</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AG30" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3227,81 +3595,93 @@
         <v>61.1</v>
       </c>
       <c r="D31" t="n">
-        <v>22.2</v>
+        <v>23.3</v>
       </c>
       <c r="E31" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="G31" t="n">
         <v>37.8</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>33.3</v>
       </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
       <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>40</v>
+      </c>
+      <c r="M31" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" t="n">
         <v>10</v>
       </c>
-      <c r="J31" t="n">
-        <v>40</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="P31" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="R31" t="n">
         <v>18.9</v>
       </c>
-      <c r="L31" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>10</v>
-      </c>
-      <c r="N31" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>50</v>
       </c>
-      <c r="R31" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="V31" t="n">
         <v>45.6</v>
       </c>
-      <c r="T31" t="n">
+      <c r="W31" t="n">
         <v>5.6</v>
       </c>
-      <c r="U31" t="n">
+      <c r="X31" t="n">
         <v>20</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>35.6</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AB31" t="n">
         <v>8.9</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AC31" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="Z31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AD31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE31" t="n">
         <v>55.6</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AF31" t="n">
         <v>63.3</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AG31" t="n">
         <v>21.1</v>
       </c>
     </row>
@@ -3318,82 +3698,94 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>95</v>
+      </c>
+      <c r="K32" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>95</v>
+      </c>
+      <c r="O32" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="Q32" t="n">
         <v>24.4</v>
       </c>
-      <c r="E32" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="R32" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="S32" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="G32" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>50</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>95</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA32" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="J32" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>95</v>
-      </c>
-      <c r="M32" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P32" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="R32" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>95</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="AB32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="AF32" t="n">
         <v>7.8</v>
       </c>
-      <c r="V32" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>90</v>
+      <c r="AG32" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -3406,85 +3798,97 @@
         <v>38.9</v>
       </c>
       <c r="C33" t="n">
-        <v>51.1</v>
+        <v>48.9</v>
       </c>
       <c r="D33" t="n">
         <v>5.6</v>
       </c>
       <c r="E33" t="n">
-        <v>75.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F33" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G33" t="n">
         <v>21.1</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>13.3</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>6.7</v>
       </c>
-      <c r="I33" t="n">
-        <v>17.8</v>
-      </c>
       <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L33" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
         <v>77.8</v>
       </c>
-      <c r="L33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="R33" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>90</v>
+      </c>
+      <c r="U33" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC33" t="n">
         <v>92.2</v>
       </c>
-      <c r="N33" t="n">
-        <v>5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P33" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="S33" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
+      <c r="AD33" t="n">
         <v>20</v>
       </c>
-      <c r="W33" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="AE33" t="n">
         <v>12.2</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AF33" t="n">
         <v>72.2</v>
       </c>
-      <c r="AC33" t="n">
-        <v>13.3</v>
+      <c r="AG33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3497,7 +3901,7 @@
         <v>38.9</v>
       </c>
       <c r="C34" t="n">
-        <v>66.7</v>
+        <v>67.8</v>
       </c>
       <c r="D34" t="n">
         <v>64.40000000000001</v>
@@ -3506,76 +3910,88 @@
         <v>5</v>
       </c>
       <c r="F34" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="G34" t="n">
         <v>93.3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>38.9</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="I34" t="n">
-        <v>57.8</v>
-      </c>
       <c r="J34" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>60</v>
+      </c>
+      <c r="L34" t="n">
         <v>43.3</v>
       </c>
-      <c r="K34" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L34" t="n">
-        <v>33.3</v>
-      </c>
       <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="N34" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="O34" t="n">
         <v>61.1</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>44.4</v>
       </c>
-      <c r="O34" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="R34" t="n">
         <v>13.3</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>92.2</v>
       </c>
-      <c r="R34" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="V34" t="n">
         <v>28.9</v>
       </c>
-      <c r="T34" t="n">
+      <c r="W34" t="n">
         <v>13.3</v>
       </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="V34" t="n">
+      <c r="Y34" t="n">
         <v>92.2</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="X34" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>62.2</v>
-      </c>
       <c r="AA34" t="n">
-        <v>75.59999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="AB34" t="n">
         <v>46.7</v>
       </c>
       <c r="AC34" t="n">
-        <v>64.40000000000001</v>
+        <v>66.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="35">
@@ -3597,76 +4013,88 @@
         <v>86.7</v>
       </c>
       <c r="F35" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G35" t="n">
         <v>24.4</v>
       </c>
-      <c r="G35" t="n">
-        <v>5</v>
-      </c>
       <c r="H35" t="n">
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>31.1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="L35" t="n">
         <v>11.1</v>
       </c>
-      <c r="K35" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>64.40000000000001</v>
-      </c>
       <c r="M35" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="O35" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>57.8</v>
       </c>
-      <c r="O35" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="R35" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>6.7</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="U35" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W35" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Z35" t="n">
         <v>87.8</v>
       </c>
-      <c r="S35" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="T35" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="U35" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="X35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y35" t="n">
+      <c r="AA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC35" t="n">
         <v>18.9</v>
       </c>
-      <c r="Z35" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AD35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF35" t="n">
         <v>54.4</v>
       </c>
-      <c r="AC35" t="n">
-        <v>5.6</v>
+      <c r="AG35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3688,76 +4116,88 @@
         <v>95</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>87.8</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
       </c>
       <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
         <v>90</v>
       </c>
-      <c r="I36" t="n">
-        <v>37.8</v>
-      </c>
       <c r="J36" t="n">
+        <v>90</v>
+      </c>
+      <c r="K36" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="L36" t="n">
         <v>7.8</v>
       </c>
-      <c r="K36" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
+        <v>80</v>
+      </c>
+      <c r="N36" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="M36" t="n">
-        <v>95</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
+        <v>95</v>
+      </c>
+      <c r="P36" t="n">
         <v>50</v>
       </c>
-      <c r="O36" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
+        <v>95</v>
+      </c>
+      <c r="R36" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>87.8</v>
-      </c>
       <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>70</v>
+      </c>
+      <c r="V36" t="n">
         <v>8.9</v>
       </c>
-      <c r="T36" t="n">
-        <v>95</v>
-      </c>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>5</v>
-      </c>
       <c r="W36" t="n">
         <v>95</v>
       </c>
       <c r="X36" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Y36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC36" t="n">
         <v>52.2</v>
       </c>
-      <c r="Z36" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AD36" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AE36" t="n">
         <v>17.8</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AF36" t="n">
         <v>46.7</v>
       </c>
-      <c r="AC36" t="n">
-        <v>27.8</v>
+      <c r="AG36" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="37">
@@ -3773,82 +4213,94 @@
         <v>12.2</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E37" t="n">
         <v>35.6</v>
       </c>
       <c r="F37" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="G37" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>62.2</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>66.7</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K37" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>22.2</v>
       </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>91.09999999999999</v>
-      </c>
       <c r="M37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N37" t="n">
+        <v>90</v>
+      </c>
+      <c r="O37" t="n">
         <v>35.6</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>33.3</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="T37" t="n">
         <v>12.2</v>
       </c>
-      <c r="P37" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="R37" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S37" t="n">
-        <v>95</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>95</v>
+      </c>
+      <c r="W37" t="n">
         <v>51.1</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>86.7</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Y37" t="n">
         <v>80</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>33.3</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AB37" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AC37" t="n">
         <v>34.4</v>
       </c>
-      <c r="Z37" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="AA37" t="n">
+      <c r="AD37" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AE37" t="n">
         <v>47.8</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AF37" t="n">
         <v>21.1</v>
       </c>
-      <c r="AC37" t="n">
-        <v>47.8</v>
+      <c r="AG37" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -3861,85 +4313,97 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>88.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>87.8</v>
+        <v>90</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
       </c>
       <c r="F38" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="G38" t="n">
         <v>60</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>57.8</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>45.6</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="L38" t="n">
         <v>90</v>
       </c>
-      <c r="J38" t="n">
-        <v>90</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD38" t="n">
         <v>80</v>
       </c>
-      <c r="L38" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="M38" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="N38" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="O38" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="P38" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="R38" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="S38" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="T38" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="U38" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="V38" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="W38" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="X38" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AE38" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AF38" t="n">
         <v>32.2</v>
       </c>
-      <c r="AC38" t="n">
-        <v>78.90000000000001</v>
+      <c r="AG38" t="n">
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3961,76 +4425,88 @@
         <v>95</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.1</v>
       </c>
-      <c r="H39" t="n">
-        <v>95</v>
-      </c>
       <c r="I39" t="n">
-        <v>26.7</v>
+        <v>95</v>
       </c>
       <c r="J39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L39" t="n">
         <v>83.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="P39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="R39" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="W39" t="n">
         <v>87.8</v>
       </c>
-      <c r="L39" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="P39" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
+      <c r="X39" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AA39" t="n">
         <v>22.2</v>
       </c>
-      <c r="T39" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="U39" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="V39" t="n">
-        <v>5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="X39" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE39" t="n">
         <v>60</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AF39" t="n">
         <v>93.3</v>
       </c>
-      <c r="AC39" t="n">
-        <v>92.2</v>
+      <c r="AG39" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -4046,82 +4522,94 @@
         <v>36.7</v>
       </c>
       <c r="D40" t="n">
-        <v>46.7</v>
+        <v>45.6</v>
       </c>
       <c r="E40" t="n">
         <v>33.3</v>
       </c>
       <c r="F40" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G40" t="n">
         <v>83.3</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>40</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>44.4</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K40" t="n">
         <v>50</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>37.8</v>
       </c>
-      <c r="K40" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L40" t="n">
-        <v>20</v>
-      </c>
       <c r="M40" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="N40" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="O40" t="n">
         <v>54.4</v>
       </c>
-      <c r="N40" t="n">
-        <v>95</v>
-      </c>
-      <c r="O40" t="n">
-        <v>17.8</v>
-      </c>
       <c r="P40" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="R40" t="n">
         <v>40</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>83.3</v>
       </c>
-      <c r="R40" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="V40" t="n">
         <v>33.3</v>
       </c>
-      <c r="T40" t="n">
+      <c r="W40" t="n">
         <v>58.9</v>
       </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
         <v>8.9</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Y40" t="n">
         <v>73.3</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>18.9</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="AB40" t="n">
         <v>26.7</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AC40" t="n">
         <v>44.4</v>
       </c>
-      <c r="Z40" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB40" t="n">
+      <c r="AD40" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF40" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="AC40" t="n">
-        <v>94.40000000000001</v>
+      <c r="AG40" t="n">
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4134,85 +4622,97 @@
         <v>90</v>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D41" t="n">
         <v>52.2</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="F41" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="G41" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>77.8</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>32.2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="K41" t="n">
         <v>24.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>76.7</v>
       </c>
-      <c r="K41" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N41" t="n">
         <v>44.4</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>23.3</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>36.7</v>
       </c>
-      <c r="O41" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
+        <v>40</v>
+      </c>
+      <c r="R41" t="n">
         <v>32.2</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>80</v>
       </c>
-      <c r="R41" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="U41" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="V41" t="n">
         <v>8.9</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
         <v>6.7</v>
       </c>
-      <c r="U41" t="n">
+      <c r="X41" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>77.8</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>72.2</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AB41" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AC41" t="n">
         <v>55.6</v>
       </c>
-      <c r="Z41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="AD41" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="AE41" t="n">
         <v>76.7</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AF41" t="n">
         <v>35.6</v>
       </c>
-      <c r="AC41" t="n">
-        <v>58.9</v>
+      <c r="AG41" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="42">
@@ -4228,82 +4728,94 @@
         <v>85.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>92.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E42" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="F42" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="G42" t="n">
         <v>12.2</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>16.7</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>83.3</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>70</v>
+      </c>
+      <c r="L42" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>95</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="J42" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>95</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>12.2</v>
       </c>
-      <c r="O42" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
+        <v>95</v>
+      </c>
+      <c r="R42" t="n">
         <v>23.3</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>13.3</v>
       </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
+        <v>95</v>
+      </c>
+      <c r="U42" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="V42" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="T42" t="n">
+      <c r="W42" t="n">
         <v>92.2</v>
       </c>
-      <c r="U42" t="n">
+      <c r="X42" t="n">
         <v>46.7</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Y42" t="n">
         <v>16.7</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>42.2</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AB42" t="n">
         <v>67.8</v>
       </c>
-      <c r="Y42" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA42" t="n">
+      <c r="AC42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="AE42" t="n">
         <v>55.6</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AF42" t="n">
         <v>90</v>
       </c>
-      <c r="AC42" t="n">
-        <v>64.40000000000001</v>
+      <c r="AG42" t="n">
+        <v>54.4</v>
       </c>
     </row>
     <row r="43">
@@ -4319,82 +4831,94 @@
         <v>63.3</v>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>61.1</v>
       </c>
       <c r="E43" t="n">
         <v>45.6</v>
       </c>
       <c r="F43" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G43" t="n">
         <v>45.6</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>31.1</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>8.9</v>
       </c>
-      <c r="I43" t="n">
-        <v>30</v>
-      </c>
       <c r="J43" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L43" t="n">
         <v>67.8</v>
       </c>
-      <c r="K43" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.6</v>
-      </c>
       <c r="M43" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="O43" t="n">
         <v>7.8</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>72.2</v>
       </c>
-      <c r="O43" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="R43" t="n">
         <v>34.4</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>36.7</v>
       </c>
-      <c r="R43" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="V43" t="n">
         <v>8.9</v>
       </c>
-      <c r="T43" t="n">
+      <c r="W43" t="n">
         <v>47.8</v>
-      </c>
-      <c r="U43" t="n">
-        <v>30</v>
-      </c>
-      <c r="V43" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="W43" t="n">
-        <v>16.7</v>
       </c>
       <c r="X43" t="n">
         <v>30</v>
       </c>
       <c r="Y43" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC43" t="n">
         <v>57.8</v>
       </c>
-      <c r="Z43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA43" t="n">
+      <c r="AD43" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AE43" t="n">
         <v>37.8</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AF43" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="AC43" t="n">
-        <v>23.3</v>
+      <c r="AG43" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="44">
@@ -4407,85 +4931,97 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>78.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="D44" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="E44" t="n">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="F44" t="n">
+        <v>40</v>
+      </c>
+      <c r="G44" t="n">
         <v>60</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>51.1</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>12.2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="K44" t="n">
         <v>35.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>32.2</v>
       </c>
-      <c r="K44" t="n">
-        <v>40</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="S44" t="n">
+        <v>70</v>
+      </c>
+      <c r="T44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="AB44" t="n">
         <v>37.8</v>
       </c>
-      <c r="M44" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="O44" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="P44" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>70</v>
-      </c>
-      <c r="R44" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="S44" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="T44" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="U44" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="V44" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="W44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="X44" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="Y44" t="n">
+      <c r="AC44" t="n">
         <v>63.3</v>
       </c>
-      <c r="Z44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA44" t="n">
+      <c r="AD44" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE44" t="n">
         <v>80</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AF44" t="n">
         <v>33.3</v>
       </c>
-      <c r="AC44" t="n">
-        <v>57.8</v>
+      <c r="AG44" t="n">
+        <v>58.9</v>
       </c>
     </row>
     <row r="45">
@@ -4498,85 +5034,97 @@
         <v>76.7</v>
       </c>
       <c r="C45" t="n">
-        <v>73.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D45" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>42.2</v>
       </c>
-      <c r="E45" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="G45" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>15.6</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="K45" t="n">
         <v>14.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>34.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="Q45" t="n">
         <v>60</v>
       </c>
-      <c r="L45" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="M45" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="N45" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="O45" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>82.2</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>66.7</v>
       </c>
-      <c r="R45" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="U45" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="V45" t="n">
         <v>18.9</v>
       </c>
-      <c r="T45" t="n">
+      <c r="W45" t="n">
         <v>11.1</v>
       </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
         <v>32.2</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Y45" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>57.8</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AB45" t="n">
         <v>33.3</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AC45" t="n">
         <v>77.8</v>
       </c>
-      <c r="Z45" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AA45" t="n">
+      <c r="AD45" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AE45" t="n">
         <v>60</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AF45" t="n">
         <v>50</v>
       </c>
-      <c r="AC45" t="n">
-        <v>36.7</v>
+      <c r="AG45" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="46">
@@ -4598,76 +5146,88 @@
         <v>52.2</v>
       </c>
       <c r="F46" t="n">
-        <v>95</v>
+        <v>11.1</v>
       </c>
       <c r="G46" t="n">
+        <v>95</v>
+      </c>
+      <c r="H46" t="n">
         <v>55.6</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
+        <v>95</v>
+      </c>
+      <c r="K46" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>13.3</v>
       </c>
-      <c r="K46" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>95</v>
-      </c>
       <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>95</v>
+      </c>
+      <c r="O46" t="n">
         <v>28.9</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>38.9</v>
       </c>
-      <c r="O46" t="n">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="R46" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="R46" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="V46" t="n">
         <v>48.9</v>
       </c>
-      <c r="T46" t="n">
+      <c r="W46" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="U46" t="n">
+      <c r="X46" t="n">
         <v>14.4</v>
       </c>
-      <c r="V46" t="n">
-        <v>95</v>
-      </c>
-      <c r="W46" t="n">
+      <c r="Y46" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z46" t="n">
         <v>7.8</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AA46" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AB46" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AC46" t="n">
         <v>12.2</v>
       </c>
-      <c r="Z46" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="AA46" t="n">
+      <c r="AD46" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="AE46" t="n">
         <v>86.7</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AF46" t="n">
         <v>11.1</v>
       </c>
-      <c r="AC46" t="n">
-        <v>85.59999999999999</v>
+      <c r="AG46" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>TotalScore</t>
+          <t>TotalRiskScore</t>
         </is>
       </c>
     </row>

--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -689,13 +689,13 @@
         <v>82.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>33.3</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>72.2</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="3">
@@ -1101,7 +1101,7 @@
         <v>87.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>25.6</v>
+        <v>24.4</v>
       </c>
       <c r="AF6" t="n">
         <v>5.6</v>
@@ -1307,13 +1307,13 @@
         <v>16.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>26.7</v>
+        <v>28.9</v>
       </c>
       <c r="AF8" t="n">
         <v>77.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.9</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="9">
@@ -1410,13 +1410,13 @@
         <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>35.6</v>
+        <v>41.1</v>
       </c>
       <c r="AF9" t="n">
         <v>82.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="10">
@@ -1519,7 +1519,7 @@
         <v>95</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="11">
@@ -1719,13 +1719,13 @@
         <v>64.40000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>72.2</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
         <v>25.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>74.40000000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1822,13 +1822,13 @@
         <v>90</v>
       </c>
       <c r="AE13" t="n">
-        <v>42.2</v>
+        <v>36.7</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>85.59999999999999</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="14">
@@ -1925,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF14" t="n">
         <v>94.40000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2028,7 +2028,7 @@
         <v>95</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AF15" t="n">
         <v>12.2</v>
@@ -2131,7 +2131,7 @@
         <v>60</v>
       </c>
       <c r="AE16" t="n">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="AF16" t="n">
         <v>18.9</v>
@@ -2240,7 +2240,7 @@
         <v>13.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>90</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2337,7 +2337,7 @@
         <v>23.3</v>
       </c>
       <c r="AE18" t="n">
-        <v>22.2</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
         <v>41.1</v>
@@ -2440,7 +2440,7 @@
         <v>66.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>88.90000000000001</v>
@@ -2543,7 +2543,7 @@
         <v>57.8</v>
       </c>
       <c r="AE20" t="n">
-        <v>35.6</v>
+        <v>44.4</v>
       </c>
       <c r="AF20" t="n">
         <v>74.40000000000001</v>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="AF21" t="n">
         <v>81.09999999999999</v>
@@ -2858,7 +2858,7 @@
         <v>43.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="24">
@@ -2955,7 +2955,7 @@
         <v>6.7</v>
       </c>
       <c r="AE24" t="n">
-        <v>71.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AF24" t="n">
         <v>28.9</v>
@@ -3058,7 +3058,7 @@
         <v>53.3</v>
       </c>
       <c r="AE25" t="n">
-        <v>82.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AF25" t="n">
         <v>55.6</v>
@@ -3167,7 +3167,7 @@
         <v>38.9</v>
       </c>
       <c r="AG26" t="n">
-        <v>71.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3264,7 +3264,7 @@
         <v>62.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>24.4</v>
+        <v>23.3</v>
       </c>
       <c r="AF27" t="n">
         <v>23.3</v>
@@ -3367,13 +3367,13 @@
         <v>31.1</v>
       </c>
       <c r="AE28" t="n">
-        <v>93.3</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
         <v>58.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>66.7</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="29">
@@ -3470,7 +3470,7 @@
         <v>93.3</v>
       </c>
       <c r="AE29" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="AF29" t="n">
         <v>67.8</v>
@@ -3573,7 +3573,7 @@
         <v>13.3</v>
       </c>
       <c r="AE30" t="n">
-        <v>51.1</v>
+        <v>48.9</v>
       </c>
       <c r="AF30" t="n">
         <v>80</v>
@@ -3676,7 +3676,7 @@
         <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>55.6</v>
+        <v>53.3</v>
       </c>
       <c r="AF31" t="n">
         <v>63.3</v>
@@ -3779,13 +3779,13 @@
         <v>60</v>
       </c>
       <c r="AE32" t="n">
-        <v>82.2</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="n">
         <v>7.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>95</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3882,13 +3882,13 @@
         <v>20</v>
       </c>
       <c r="AE33" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="AF33" t="n">
         <v>72.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -3985,13 +3985,13 @@
         <v>72.2</v>
       </c>
       <c r="AE34" t="n">
-        <v>75.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AF34" t="n">
         <v>46.7</v>
       </c>
       <c r="AG34" t="n">
-        <v>66.7</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -4088,13 +4088,13 @@
         <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>5</v>
+        <v>17.8</v>
       </c>
       <c r="AF35" t="n">
         <v>54.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -4191,7 +4191,7 @@
         <v>28.9</v>
       </c>
       <c r="AE36" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="n">
         <v>46.7</v>
@@ -4294,7 +4294,7 @@
         <v>42.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>47.8</v>
+        <v>46.7</v>
       </c>
       <c r="AF37" t="n">
         <v>21.1</v>
@@ -4403,7 +4403,7 @@
         <v>32.2</v>
       </c>
       <c r="AG38" t="n">
-        <v>81.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -4500,13 +4500,13 @@
         <v>95</v>
       </c>
       <c r="AE39" t="n">
-        <v>60</v>
+        <v>62.2</v>
       </c>
       <c r="AF39" t="n">
         <v>93.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>78.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -4609,7 +4609,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="AG40" t="n">
-        <v>91.09999999999999</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -4706,7 +4706,7 @@
         <v>38.9</v>
       </c>
       <c r="AE41" t="n">
-        <v>76.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AF41" t="n">
         <v>35.6</v>
@@ -4809,13 +4809,13 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AE42" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="AF42" t="n">
         <v>90</v>
       </c>
       <c r="AG42" t="n">
-        <v>54.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="43">
@@ -4912,7 +4912,7 @@
         <v>25.6</v>
       </c>
       <c r="AE43" t="n">
-        <v>37.8</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="n">
         <v>85.59999999999999</v>
@@ -5118,7 +5118,7 @@
         <v>21.1</v>
       </c>
       <c r="AE45" t="n">
-        <v>60</v>
+        <v>57.8</v>
       </c>
       <c r="AF45" t="n">
         <v>50</v>
@@ -5221,13 +5221,13 @@
         <v>36.7</v>
       </c>
       <c r="AE46" t="n">
-        <v>86.7</v>
+        <v>87.8</v>
       </c>
       <c r="AF46" t="n">
         <v>11.1</v>
       </c>
       <c r="AG46" t="n">
-        <v>88.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -531,47 +531,47 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Cutaneous T‐cell Lymphoma</t>
+          <t>Osteoarthritis</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Osteoarthritis</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Food Allergy</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Food Allergy</t>
+          <t>Glaucoma</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Glaucoma</t>
+          <t>Diarrhea</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Diarrhea</t>
+          <t>Acute Diarrhea</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Acute Diarrhea</t>
+          <t>Chronic Enteropathy</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Chronic Enteropathy</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Constipation</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -647,46 +647,46 @@
         <v>31.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.9</v>
+        <v>87.8</v>
       </c>
       <c r="R2" t="n">
         <v>17.8</v>
       </c>
       <c r="S2" t="n">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="T2" t="n">
         <v>30</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>26.7</v>
       </c>
       <c r="V2" t="n">
-        <v>26.7</v>
+        <v>67.8</v>
       </c>
       <c r="W2" t="n">
-        <v>67.8</v>
+        <v>25.6</v>
       </c>
       <c r="X2" t="n">
-        <v>25.6</v>
+        <v>87.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.8</v>
+        <v>21.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.1</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.90000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.7</v>
+        <v>45.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>82.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AE2" t="n">
         <v>33.3</v>
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>67.8</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="3">
@@ -729,7 +729,7 @@
         <v>6.7</v>
       </c>
       <c r="J3" t="n">
-        <v>28.9</v>
+        <v>31.1</v>
       </c>
       <c r="K3" t="n">
         <v>77.8</v>
@@ -756,40 +756,40 @@
         <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>28.9</v>
+        <v>34.4</v>
       </c>
       <c r="T3" t="n">
         <v>67.8</v>
       </c>
       <c r="U3" t="n">
-        <v>76.7</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>22.2</v>
+        <v>63.3</v>
       </c>
       <c r="W3" t="n">
-        <v>63.3</v>
+        <v>80</v>
       </c>
       <c r="X3" t="n">
-        <v>80</v>
+        <v>41.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.1</v>
+        <v>6.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.7</v>
+        <v>77.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.8</v>
+        <v>42.2</v>
       </c>
       <c r="AB3" t="n">
         <v>42.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.2</v>
+        <v>50</v>
       </c>
       <c r="AD3" t="n">
-        <v>33.3</v>
+        <v>24.4</v>
       </c>
       <c r="AE3" t="n">
         <v>85.59999999999999</v>
@@ -798,7 +798,7 @@
         <v>15.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>84.40000000000001</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>82.2</v>
       </c>
       <c r="J4" t="n">
-        <v>35.6</v>
+        <v>37.8</v>
       </c>
       <c r="K4" t="n">
         <v>47.8</v>
@@ -853,7 +853,7 @@
         <v>70</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.9</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
         <v>42.2</v>
@@ -865,34 +865,34 @@
         <v>32.2</v>
       </c>
       <c r="U4" t="n">
-        <v>72.2</v>
+        <v>50</v>
       </c>
       <c r="V4" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="W4" t="n">
-        <v>31.1</v>
+        <v>82.2</v>
       </c>
       <c r="X4" t="n">
-        <v>82.2</v>
+        <v>53.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.3</v>
+        <v>58.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>58.9</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="AC4" t="n">
         <v>70</v>
       </c>
-      <c r="AB4" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>61.1</v>
-      </c>
       <c r="AD4" t="n">
-        <v>75.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="AE4" t="n">
         <v>46.7</v>
@@ -901,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>58.9</v>
       </c>
       <c r="D5" t="n">
         <v>75.59999999999999</v>
@@ -956,46 +956,46 @@
         <v>95</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="R5" t="n">
         <v>44.4</v>
       </c>
       <c r="S5" t="n">
-        <v>34.4</v>
+        <v>32.2</v>
       </c>
       <c r="T5" t="n">
         <v>27.8</v>
       </c>
       <c r="U5" t="n">
-        <v>7.8</v>
+        <v>87.8</v>
       </c>
       <c r="V5" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="W5" t="n">
         <v>87.8</v>
       </c>
-      <c r="W5" t="n">
-        <v>37.8</v>
-      </c>
       <c r="X5" t="n">
-        <v>87.8</v>
+        <v>32.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.2</v>
+        <v>53.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>53.3</v>
+        <v>46.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.7</v>
+        <v>52.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>52.2</v>
+        <v>14.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.4</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="n">
-        <v>68.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="n">
         <v>95</v>
@@ -1004,7 +1004,7 @@
         <v>61.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>56.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.9</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="R6" t="n">
         <v>93.3</v>
@@ -1071,34 +1071,34 @@
         <v>18.9</v>
       </c>
       <c r="U6" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>95</v>
+      </c>
+      <c r="W6" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="X6" t="n">
         <v>86.7</v>
       </c>
-      <c r="V6" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>95</v>
-      </c>
-      <c r="X6" t="n">
-        <v>46.7</v>
-      </c>
       <c r="Y6" t="n">
-        <v>86.7</v>
+        <v>14.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.4</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>6.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>87.8</v>
+        <v>72.2</v>
       </c>
       <c r="AE6" t="n">
         <v>24.4</v>
@@ -1107,7 +1107,7 @@
         <v>5.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>63.3</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1141,7 @@
         <v>27.8</v>
       </c>
       <c r="J7" t="n">
-        <v>25.6</v>
+        <v>26.7</v>
       </c>
       <c r="K7" t="n">
         <v>20</v>
@@ -1162,55 +1162,55 @@
         <v>81.09999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.6</v>
+        <v>87.8</v>
       </c>
       <c r="R7" t="n">
         <v>93.3</v>
       </c>
       <c r="S7" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
       </c>
       <c r="T7" t="n">
         <v>48.9</v>
       </c>
       <c r="U7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="V7" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>46.7</v>
       </c>
       <c r="X7" t="n">
-        <v>46.7</v>
+        <v>48.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>48.9</v>
+        <v>77.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>77.8</v>
+        <v>51.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>51.1</v>
+        <v>15.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.6</v>
+        <v>42.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>42.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>44.4</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
       <c r="AF7" t="n">
         <v>52.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>32.2</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="8">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.7</v>
+        <v>52.2</v>
       </c>
       <c r="R8" t="n">
         <v>58.9</v>
@@ -1277,34 +1277,34 @@
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>38.9</v>
+        <v>52.2</v>
       </c>
       <c r="V8" t="n">
-        <v>52.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>75.59999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="X8" t="n">
-        <v>22.2</v>
+        <v>51.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.1</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>5</v>
+        <v>37.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>37.8</v>
+        <v>63.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>63.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.40000000000001</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.7</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
         <v>28.9</v>
@@ -1313,7 +1313,7 @@
         <v>77.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="9">
@@ -1326,7 +1326,7 @@
         <v>38.9</v>
       </c>
       <c r="C9" t="n">
-        <v>16.7</v>
+        <v>12.2</v>
       </c>
       <c r="D9" t="n">
         <v>27.8</v>
@@ -1368,46 +1368,46 @@
         <v>17.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>83.3</v>
+        <v>87.8</v>
       </c>
       <c r="R9" t="n">
         <v>80</v>
       </c>
       <c r="S9" t="n">
-        <v>22.2</v>
+        <v>18.9</v>
       </c>
       <c r="T9" t="n">
         <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>65.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="V9" t="n">
-        <v>56.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>90</v>
+        <v>61.1</v>
       </c>
       <c r="X9" t="n">
-        <v>61.1</v>
+        <v>12.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.2</v>
+        <v>46.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>46.7</v>
+        <v>11.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>11.1</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>86.7</v>
+        <v>62.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="AE9" t="n">
         <v>41.1</v>
@@ -1416,7 +1416,7 @@
         <v>82.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10">
@@ -1450,7 +1450,7 @@
         <v>93.3</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="K10" t="n">
         <v>82.2</v>
@@ -1471,47 +1471,47 @@
         <v>24.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.2</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="T10" t="n">
         <v>95</v>
       </c>
       <c r="U10" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>95</v>
+      </c>
+      <c r="X10" t="n">
         <v>11.1</v>
       </c>
-      <c r="V10" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="X10" t="n">
-        <v>95</v>
-      </c>
       <c r="Y10" t="n">
-        <v>11.1</v>
+        <v>93.3</v>
       </c>
       <c r="Z10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD10" t="n">
         <v>93.3</v>
       </c>
-      <c r="AA10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>92.2</v>
-      </c>
       <c r="AE10" t="n">
         <v>5</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>95</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="11">
@@ -1553,7 +1553,7 @@
         <v>51.1</v>
       </c>
       <c r="J11" t="n">
-        <v>38.9</v>
+        <v>36.7</v>
       </c>
       <c r="K11" t="n">
         <v>8.9</v>
@@ -1574,7 +1574,7 @@
         <v>5.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.8</v>
+        <v>87.8</v>
       </c>
       <c r="R11" t="n">
         <v>45.6</v>
@@ -1586,43 +1586,43 @@
         <v>77.8</v>
       </c>
       <c r="U11" t="n">
-        <v>56.7</v>
+        <v>92.2</v>
       </c>
       <c r="V11" t="n">
-        <v>92.2</v>
+        <v>20</v>
       </c>
       <c r="W11" t="n">
-        <v>21.1</v>
+        <v>5.6</v>
       </c>
       <c r="X11" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>46.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>46.7</v>
+        <v>13.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>13.3</v>
+        <v>34.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>34.4</v>
+        <v>72.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>72.2</v>
+        <v>66.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.7</v>
+        <v>44.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="AF11" t="n">
         <v>95</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1635,7 +1635,7 @@
         <v>38.9</v>
       </c>
       <c r="C12" t="n">
-        <v>52.2</v>
+        <v>55.6</v>
       </c>
       <c r="D12" t="n">
         <v>95</v>
@@ -1677,55 +1677,55 @@
         <v>67.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.8</v>
+        <v>38.9</v>
       </c>
       <c r="R12" t="n">
         <v>72.2</v>
       </c>
       <c r="S12" t="n">
-        <v>74.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="T12" t="n">
         <v>14.4</v>
       </c>
       <c r="U12" t="n">
-        <v>94.40000000000001</v>
+        <v>58.9</v>
       </c>
       <c r="V12" t="n">
-        <v>58.9</v>
+        <v>28.9</v>
       </c>
       <c r="W12" t="n">
-        <v>27.8</v>
+        <v>67.8</v>
       </c>
       <c r="X12" t="n">
-        <v>67.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>71.09999999999999</v>
+        <v>36.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>36.7</v>
+        <v>83.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>83.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="AB12" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD12" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="AC12" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>64.40000000000001</v>
-      </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AF12" t="n">
         <v>25.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>70</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="13">
@@ -1738,7 +1738,7 @@
         <v>38.9</v>
       </c>
       <c r="C13" t="n">
-        <v>41.1</v>
+        <v>42.2</v>
       </c>
       <c r="D13" t="n">
         <v>71.09999999999999</v>
@@ -1780,46 +1780,46 @@
         <v>78.90000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>87.8</v>
       </c>
       <c r="R13" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>93.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="T13" t="n">
         <v>58.9</v>
       </c>
       <c r="U13" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="V13" t="n">
-        <v>40</v>
+        <v>72.2</v>
       </c>
       <c r="W13" t="n">
-        <v>72.2</v>
+        <v>35.6</v>
       </c>
       <c r="X13" t="n">
-        <v>35.6</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>61.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>61.1</v>
+        <v>5</v>
       </c>
       <c r="AC13" t="n">
-        <v>5</v>
+        <v>34.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>90</v>
+        <v>83.3</v>
       </c>
       <c r="AE13" t="n">
         <v>36.7</v>
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>87.8</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1841,7 +1841,7 @@
         <v>38.9</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4</v>
+        <v>21.1</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -1862,7 +1862,7 @@
         <v>47.8</v>
       </c>
       <c r="J14" t="n">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="K14" t="n">
         <v>17.8</v>
@@ -1883,55 +1883,55 @@
         <v>62.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.40000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="R14" t="n">
         <v>51.1</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="T14" t="n">
         <v>70</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>77.8</v>
       </c>
       <c r="V14" t="n">
-        <v>77.8</v>
+        <v>37.8</v>
       </c>
       <c r="W14" t="n">
-        <v>40</v>
+        <v>46.7</v>
       </c>
       <c r="X14" t="n">
-        <v>46.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.8</v>
+        <v>93.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>93.3</v>
+        <v>17.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.9</v>
+        <v>87.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>87.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>48.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>94.40000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15">
@@ -1986,7 +1986,7 @@
         <v>47.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.4</v>
+        <v>24.4</v>
       </c>
       <c r="R15" t="n">
         <v>5.6</v>
@@ -1998,37 +1998,37 @@
         <v>5</v>
       </c>
       <c r="U15" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="W15" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="X15" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="AE15" t="n">
         <v>92.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="W15" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="X15" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>91.09999999999999</v>
       </c>
       <c r="AF15" t="n">
         <v>12.2</v>
@@ -2068,7 +2068,7 @@
         <v>34.4</v>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>44.4</v>
       </c>
       <c r="K16" t="n">
         <v>64.40000000000001</v>
@@ -2089,7 +2089,7 @@
         <v>26.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.3</v>
+        <v>55.6</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
@@ -2101,34 +2101,34 @@
         <v>57.8</v>
       </c>
       <c r="U16" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="V16" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="W16" t="n">
         <v>73.3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>22.2</v>
       </c>
       <c r="X16" t="n">
         <v>73.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.3</v>
+        <v>43.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>43.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>84.40000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>25.6</v>
+        <v>32.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>32.2</v>
+        <v>47.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>60</v>
+        <v>57.8</v>
       </c>
       <c r="AE16" t="n">
         <v>32.2</v>
@@ -2150,7 +2150,7 @@
         <v>38.9</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>87.8</v>
@@ -2192,46 +2192,46 @@
         <v>65.59999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.7</v>
+        <v>27.8</v>
       </c>
       <c r="R17" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>63.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T17" t="n">
         <v>45.6</v>
       </c>
       <c r="U17" t="n">
-        <v>95</v>
+        <v>67.8</v>
       </c>
       <c r="V17" t="n">
-        <v>67.8</v>
+        <v>53.3</v>
       </c>
       <c r="W17" t="n">
-        <v>53.3</v>
+        <v>63.3</v>
       </c>
       <c r="X17" t="n">
-        <v>63.3</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="n">
-        <v>80</v>
+        <v>12.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.2</v>
+        <v>87.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>87.8</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>70</v>
+        <v>5.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>16.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>53.3</v>
+        <v>35.6</v>
       </c>
       <c r="AE17" t="n">
         <v>88.90000000000001</v>
@@ -2240,7 +2240,7 @@
         <v>13.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>88.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2253,7 +2253,7 @@
         <v>38.9</v>
       </c>
       <c r="C18" t="n">
-        <v>32.2</v>
+        <v>33.3</v>
       </c>
       <c r="D18" t="n">
         <v>12.2</v>
@@ -2274,7 +2274,7 @@
         <v>23.3</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="K18" t="n">
         <v>5.6</v>
@@ -2295,46 +2295,46 @@
         <v>95</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="R18" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>24.4</v>
+        <v>27.8</v>
       </c>
       <c r="T18" t="n">
         <v>61.1</v>
       </c>
       <c r="U18" t="n">
-        <v>77.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>94.40000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="W18" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AD18" t="n">
         <v>16.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>23.3</v>
       </c>
       <c r="AE18" t="n">
         <v>20</v>
@@ -2343,7 +2343,7 @@
         <v>41.1</v>
       </c>
       <c r="AG18" t="n">
-        <v>27.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="19">
@@ -2377,7 +2377,7 @@
         <v>54.4</v>
       </c>
       <c r="J19" t="n">
-        <v>45.6</v>
+        <v>47.8</v>
       </c>
       <c r="K19" t="n">
         <v>95</v>
@@ -2398,46 +2398,46 @@
         <v>74.40000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.90000000000001</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>50</v>
       </c>
       <c r="S19" t="n">
-        <v>24.4</v>
+        <v>22.2</v>
       </c>
       <c r="T19" t="n">
         <v>92.2</v>
       </c>
       <c r="U19" t="n">
-        <v>6.7</v>
+        <v>95</v>
       </c>
       <c r="V19" t="n">
-        <v>95</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="W19" t="n">
-        <v>65.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="X19" t="n">
-        <v>95</v>
+        <v>31.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.1</v>
+        <v>95</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>13.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.3</v>
+        <v>58.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>58.9</v>
+        <v>47.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>47.8</v>
+        <v>28.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>66.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AE19" t="n">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="20">
@@ -2459,7 +2459,7 @@
         <v>38.9</v>
       </c>
       <c r="C20" t="n">
-        <v>95</v>
+        <v>93.3</v>
       </c>
       <c r="D20" t="n">
         <v>13.3</v>
@@ -2480,7 +2480,7 @@
         <v>36.7</v>
       </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="K20" t="n">
         <v>12.2</v>
@@ -2501,55 +2501,55 @@
         <v>53.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="R20" t="n">
         <v>66.7</v>
       </c>
       <c r="S20" t="n">
-        <v>32.2</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>74.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="V20" t="n">
-        <v>82.2</v>
+        <v>48.9</v>
       </c>
       <c r="W20" t="n">
-        <v>50</v>
+        <v>76.7</v>
       </c>
       <c r="X20" t="n">
-        <v>76.7</v>
+        <v>27.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>27.8</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>25.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>25.6</v>
+        <v>14.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.4</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="n">
-        <v>90</v>
+        <v>33.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>57.8</v>
+        <v>55.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>44.4</v>
+        <v>43.3</v>
       </c>
       <c r="AF20" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>34.4</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="21">
@@ -2562,7 +2562,7 @@
         <v>38.9</v>
       </c>
       <c r="C21" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="D21" t="n">
         <v>32.2</v>
@@ -2583,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -2604,49 +2604,49 @@
         <v>41.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>36.7</v>
       </c>
       <c r="S21" t="n">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="T21" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>31.1</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>75.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>15.6</v>
       </c>
       <c r="X21" t="n">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.3</v>
+        <v>62.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>62.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA21" t="n">
         <v>5.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.6</v>
+        <v>27.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>27.8</v>
+        <v>66.7</v>
       </c>
       <c r="AD21" t="n">
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="AF21" t="n">
         <v>81.09999999999999</v>
@@ -2665,7 +2665,7 @@
         <v>38.9</v>
       </c>
       <c r="C22" t="n">
-        <v>53.3</v>
+        <v>48.9</v>
       </c>
       <c r="D22" t="n">
         <v>47.8</v>
@@ -2686,7 +2686,7 @@
         <v>21.1</v>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>26.7</v>
       </c>
       <c r="K22" t="n">
         <v>66.7</v>
@@ -2707,7 +2707,7 @@
         <v>61.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.6</v>
+        <v>48.9</v>
       </c>
       <c r="R22" t="n">
         <v>54.4</v>
@@ -2719,34 +2719,34 @@
         <v>62.2</v>
       </c>
       <c r="U22" t="n">
-        <v>47.8</v>
+        <v>43.3</v>
       </c>
       <c r="V22" t="n">
-        <v>43.3</v>
+        <v>25.6</v>
       </c>
       <c r="W22" t="n">
-        <v>35.6</v>
+        <v>46.7</v>
       </c>
       <c r="X22" t="n">
         <v>46.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.7</v>
+        <v>38.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>38.9</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="AA22" t="n">
-        <v>81.09999999999999</v>
+        <v>37.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>37.8</v>
+        <v>25.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>25.6</v>
+        <v>58.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>31.1</v>
+        <v>33.3</v>
       </c>
       <c r="AE22" t="n">
         <v>51.1</v>
@@ -2755,7 +2755,7 @@
         <v>27.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>41.1</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="23">
@@ -2768,7 +2768,7 @@
         <v>38.9</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>23.3</v>
       </c>
       <c r="D23" t="n">
         <v>58.9</v>
@@ -2810,46 +2810,46 @@
         <v>7.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.1</v>
+        <v>32.2</v>
       </c>
       <c r="R23" t="n">
         <v>21.1</v>
       </c>
       <c r="S23" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="T23" t="n">
         <v>5.6</v>
       </c>
       <c r="U23" t="n">
-        <v>35.6</v>
+        <v>72.2</v>
       </c>
       <c r="V23" t="n">
-        <v>72.2</v>
+        <v>83.3</v>
       </c>
       <c r="W23" t="n">
-        <v>84.40000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="X23" t="n">
-        <v>46.7</v>
+        <v>53.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>53.3</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>67.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>67.8</v>
+        <v>76.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>76.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>64.40000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>42.2</v>
+        <v>44.4</v>
       </c>
       <c r="AE23" t="n">
         <v>64.40000000000001</v>
@@ -2858,7 +2858,7 @@
         <v>43.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>54.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="24">
@@ -2871,7 +2871,7 @@
         <v>38.9</v>
       </c>
       <c r="C24" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="D24" t="n">
         <v>21.1</v>
@@ -2913,7 +2913,7 @@
         <v>92.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="R24" t="n">
         <v>63.3</v>
@@ -2925,34 +2925,34 @@
         <v>16.7</v>
       </c>
       <c r="U24" t="n">
-        <v>91.09999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="V24" t="n">
-        <v>63.3</v>
+        <v>61.1</v>
       </c>
       <c r="W24" t="n">
-        <v>61.1</v>
+        <v>58.9</v>
       </c>
       <c r="X24" t="n">
-        <v>58.9</v>
+        <v>33.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>33.3</v>
+        <v>23.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>23.3</v>
+        <v>40</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AB24" t="n">
-        <v>65.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>71.09999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>75.59999999999999</v>
@@ -2961,7 +2961,7 @@
         <v>28.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>44.4</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="25">
@@ -2974,7 +2974,7 @@
         <v>38.9</v>
       </c>
       <c r="C25" t="n">
-        <v>91.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="D25" t="n">
         <v>93.3</v>
@@ -3016,46 +3016,46 @@
         <v>76.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>55.6</v>
       </c>
       <c r="R25" t="n">
         <v>76.7</v>
       </c>
       <c r="S25" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="T25" t="n">
         <v>21.1</v>
       </c>
       <c r="U25" t="n">
-        <v>81.09999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="V25" t="n">
-        <v>35.6</v>
+        <v>17.8</v>
       </c>
       <c r="W25" t="n">
-        <v>20</v>
+        <v>56.7</v>
       </c>
       <c r="X25" t="n">
-        <v>56.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="Z25" t="n">
-        <v>70</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AA25" t="n">
-        <v>71.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>92.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>75.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>53.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AE25" t="n">
         <v>84.40000000000001</v>
@@ -3064,7 +3064,7 @@
         <v>55.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>77.8</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="26">
@@ -3077,7 +3077,7 @@
         <v>38.9</v>
       </c>
       <c r="C26" t="n">
-        <v>64.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D26" t="n">
         <v>64.40000000000001</v>
@@ -3098,7 +3098,7 @@
         <v>60</v>
       </c>
       <c r="J26" t="n">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="K26" t="n">
         <v>57.8</v>
@@ -3119,46 +3119,46 @@
         <v>91.09999999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="R26" t="n">
         <v>66.7</v>
       </c>
       <c r="S26" t="n">
-        <v>73.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="T26" t="n">
         <v>37.8</v>
       </c>
       <c r="U26" t="n">
-        <v>83.3</v>
+        <v>31.1</v>
       </c>
       <c r="V26" t="n">
-        <v>31.1</v>
+        <v>40</v>
       </c>
       <c r="W26" t="n">
-        <v>40</v>
+        <v>33.3</v>
       </c>
       <c r="X26" t="n">
-        <v>33.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.90000000000001</v>
+        <v>60</v>
       </c>
       <c r="Z26" t="n">
-        <v>60</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AA26" t="n">
-        <v>91.09999999999999</v>
+        <v>44.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>44.4</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="n">
-        <v>50</v>
+        <v>72.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>78.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AE26" t="n">
         <v>66.7</v>
@@ -3167,7 +3167,7 @@
         <v>38.9</v>
       </c>
       <c r="AG26" t="n">
-        <v>74.40000000000001</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="27">
@@ -3222,7 +3222,7 @@
         <v>87.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.1</v>
+        <v>87.8</v>
       </c>
       <c r="R27" t="n">
         <v>78.90000000000001</v>
@@ -3234,34 +3234,34 @@
         <v>64.40000000000001</v>
       </c>
       <c r="U27" t="n">
-        <v>58.9</v>
+        <v>8.9</v>
       </c>
       <c r="V27" t="n">
-        <v>8.9</v>
+        <v>46.7</v>
       </c>
       <c r="W27" t="n">
-        <v>46.7</v>
+        <v>26.7</v>
       </c>
       <c r="X27" t="n">
-        <v>26.7</v>
+        <v>44.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>44.4</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>74.40000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>55.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AB27" t="n">
-        <v>75.59999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>25.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>62.2</v>
+        <v>52.2</v>
       </c>
       <c r="AE27" t="n">
         <v>23.3</v>
@@ -3270,7 +3270,7 @@
         <v>23.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>45.6</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="28">
@@ -3283,7 +3283,7 @@
         <v>38.9</v>
       </c>
       <c r="C28" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>18.9</v>
@@ -3304,7 +3304,7 @@
         <v>25.6</v>
       </c>
       <c r="J28" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
         <v>24.4</v>
@@ -3325,7 +3325,7 @@
         <v>83.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.7</v>
+        <v>34.4</v>
       </c>
       <c r="R28" t="n">
         <v>25.6</v>
@@ -3337,34 +3337,34 @@
         <v>52.2</v>
       </c>
       <c r="U28" t="n">
+        <v>30</v>
+      </c>
+      <c r="V28" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AD28" t="n">
         <v>37.8</v>
-      </c>
-      <c r="V28" t="n">
-        <v>30</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X28" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>31.1</v>
       </c>
       <c r="AE28" t="n">
         <v>95</v>
@@ -3373,7 +3373,7 @@
         <v>58.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>72.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -3407,7 +3407,7 @@
         <v>87.8</v>
       </c>
       <c r="J29" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
         <v>61.1</v>
@@ -3428,46 +3428,46 @@
         <v>18.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.3</v>
+        <v>41.1</v>
       </c>
       <c r="R29" t="n">
         <v>55.6</v>
       </c>
       <c r="S29" t="n">
-        <v>28.9</v>
+        <v>24.4</v>
       </c>
       <c r="T29" t="n">
         <v>95</v>
       </c>
       <c r="U29" t="n">
-        <v>28.9</v>
+        <v>8.9</v>
       </c>
       <c r="V29" t="n">
-        <v>8.9</v>
+        <v>70</v>
       </c>
       <c r="W29" t="n">
-        <v>70</v>
+        <v>18.9</v>
       </c>
       <c r="X29" t="n">
-        <v>18.9</v>
+        <v>25.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>25.6</v>
+        <v>83.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>83.3</v>
+        <v>61.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>61.1</v>
+        <v>44.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>44.4</v>
+        <v>95</v>
       </c>
       <c r="AC29" t="n">
-        <v>95</v>
+        <v>86.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>93.3</v>
+        <v>95</v>
       </c>
       <c r="AE29" t="n">
         <v>15.6</v>
@@ -3476,7 +3476,7 @@
         <v>67.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>36.7</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="30">
@@ -3531,7 +3531,7 @@
         <v>26.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.40000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="R30" t="n">
         <v>47.8</v>
@@ -3543,43 +3543,43 @@
         <v>24.4</v>
       </c>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="V30" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="W30" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="X30" t="n">
         <v>90</v>
       </c>
-      <c r="W30" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="X30" t="n">
-        <v>93.3</v>
-      </c>
       <c r="Y30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="n">
-        <v>80</v>
+        <v>17.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.8</v>
+        <v>56.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>56.7</v>
+        <v>38.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>38.9</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>13.3</v>
+        <v>26.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>48.9</v>
+        <v>51.1</v>
       </c>
       <c r="AF30" t="n">
         <v>80</v>
       </c>
       <c r="AG30" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="31">
@@ -3592,7 +3592,7 @@
         <v>86.7</v>
       </c>
       <c r="C31" t="n">
-        <v>61.1</v>
+        <v>62.2</v>
       </c>
       <c r="D31" t="n">
         <v>23.3</v>
@@ -3646,31 +3646,31 @@
         <v>34.4</v>
       </c>
       <c r="U31" t="n">
-        <v>15.6</v>
+        <v>45.6</v>
       </c>
       <c r="V31" t="n">
-        <v>45.6</v>
+        <v>5</v>
       </c>
       <c r="W31" t="n">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>35.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>85.59999999999999</v>
+        <v>28.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>28.9</v>
+        <v>8.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.9</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>78.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="AD31" t="n">
         <v>5</v>
@@ -3682,7 +3682,7 @@
         <v>63.3</v>
       </c>
       <c r="AG31" t="n">
-        <v>21.1</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="32">
@@ -3737,46 +3737,46 @@
         <v>31.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>24.4</v>
+        <v>87.8</v>
       </c>
       <c r="R32" t="n">
         <v>11.1</v>
       </c>
       <c r="S32" t="n">
-        <v>81.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
       </c>
       <c r="U32" t="n">
-        <v>43.3</v>
+        <v>8.9</v>
       </c>
       <c r="V32" t="n">
-        <v>8.9</v>
+        <v>95</v>
       </c>
       <c r="W32" t="n">
-        <v>95</v>
+        <v>7.8</v>
       </c>
       <c r="X32" t="n">
-        <v>7.8</v>
+        <v>83.3</v>
       </c>
       <c r="Y32" t="n">
-        <v>83.3</v>
+        <v>5</v>
       </c>
       <c r="Z32" t="n">
-        <v>5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AA32" t="n">
-        <v>75.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AC32" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AD32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE32" t="n">
         <v>80</v>
@@ -3785,7 +3785,7 @@
         <v>7.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>91.09999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -3798,7 +3798,7 @@
         <v>38.9</v>
       </c>
       <c r="C33" t="n">
-        <v>48.9</v>
+        <v>52.2</v>
       </c>
       <c r="D33" t="n">
         <v>5.6</v>
@@ -3840,46 +3840,46 @@
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.8</v>
+        <v>87.8</v>
       </c>
       <c r="R33" t="n">
         <v>27.8</v>
       </c>
       <c r="S33" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="T33" t="n">
         <v>90</v>
       </c>
       <c r="U33" t="n">
-        <v>26.7</v>
+        <v>54.4</v>
       </c>
       <c r="V33" t="n">
-        <v>54.4</v>
+        <v>57.8</v>
       </c>
       <c r="W33" t="n">
-        <v>57.8</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>20</v>
+        <v>32.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>32.2</v>
+        <v>42.2</v>
       </c>
       <c r="AA33" t="n">
-        <v>42.2</v>
+        <v>5</v>
       </c>
       <c r="AB33" t="n">
-        <v>5</v>
+        <v>92.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>92.2</v>
+        <v>14.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>20</v>
+        <v>14.4</v>
       </c>
       <c r="AE33" t="n">
         <v>11.1</v>
@@ -3922,7 +3922,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>68.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="K34" t="n">
         <v>60</v>
@@ -3943,46 +3943,46 @@
         <v>44.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.3</v>
+        <v>36.7</v>
       </c>
       <c r="R34" t="n">
         <v>13.3</v>
       </c>
       <c r="S34" t="n">
-        <v>92.2</v>
+        <v>95</v>
       </c>
       <c r="T34" t="n">
         <v>42.2</v>
       </c>
       <c r="U34" t="n">
-        <v>63.3</v>
+        <v>28.9</v>
       </c>
       <c r="V34" t="n">
-        <v>28.9</v>
+        <v>15.6</v>
       </c>
       <c r="W34" t="n">
-        <v>13.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>88.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="Z34" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="AD34" t="n">
         <v>81.09999999999999</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>72.2</v>
       </c>
       <c r="AE34" t="n">
         <v>71.09999999999999</v>
@@ -3991,7 +3991,7 @@
         <v>46.7</v>
       </c>
       <c r="AG34" t="n">
-        <v>64.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -4046,46 +4046,46 @@
         <v>57.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.90000000000001</v>
+        <v>44.4</v>
       </c>
       <c r="R35" t="n">
         <v>93.3</v>
       </c>
       <c r="S35" t="n">
-        <v>6.7</v>
+        <v>22.2</v>
       </c>
       <c r="T35" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>52.2</v>
+        <v>8.9</v>
       </c>
       <c r="V35" t="n">
-        <v>8.9</v>
+        <v>42.2</v>
       </c>
       <c r="W35" t="n">
-        <v>42.2</v>
+        <v>82.2</v>
       </c>
       <c r="X35" t="n">
-        <v>82.2</v>
+        <v>21.1</v>
       </c>
       <c r="Y35" t="n">
-        <v>21.1</v>
+        <v>87.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>87.8</v>
+        <v>5</v>
       </c>
       <c r="AA35" t="n">
         <v>5</v>
       </c>
       <c r="AB35" t="n">
-        <v>5</v>
+        <v>18.9</v>
       </c>
       <c r="AC35" t="n">
-        <v>18.9</v>
+        <v>51.1</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="AE35" t="n">
         <v>17.8</v>
@@ -4094,7 +4094,7 @@
         <v>54.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="36">
@@ -4149,7 +4149,7 @@
         <v>50</v>
       </c>
       <c r="Q36" t="n">
-        <v>95</v>
+        <v>87.8</v>
       </c>
       <c r="R36" t="n">
         <v>93.3</v>
@@ -4161,43 +4161,43 @@
         <v>82.2</v>
       </c>
       <c r="U36" t="n">
-        <v>70</v>
+        <v>8.9</v>
       </c>
       <c r="V36" t="n">
-        <v>8.9</v>
+        <v>95</v>
       </c>
       <c r="W36" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="X36" t="n">
         <v>5</v>
       </c>
       <c r="Y36" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="Z36" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="AA36" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
-        <v>95</v>
+        <v>52.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>52.2</v>
+        <v>54.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>28.9</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="AF36" t="n">
         <v>46.7</v>
       </c>
       <c r="AG36" t="n">
-        <v>24.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="37">
@@ -4210,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="C37" t="n">
-        <v>12.2</v>
+        <v>16.7</v>
       </c>
       <c r="D37" t="n">
         <v>11.1</v>
@@ -4252,46 +4252,46 @@
         <v>33.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>33.3</v>
+        <v>12.2</v>
       </c>
       <c r="R37" t="n">
         <v>93.3</v>
       </c>
       <c r="S37" t="n">
-        <v>67.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="T37" t="n">
         <v>12.2</v>
       </c>
       <c r="U37" t="n">
-        <v>61.1</v>
+        <v>95</v>
       </c>
       <c r="V37" t="n">
-        <v>95</v>
+        <v>51.1</v>
       </c>
       <c r="W37" t="n">
-        <v>51.1</v>
+        <v>86.7</v>
       </c>
       <c r="X37" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="n">
-        <v>80</v>
+        <v>33.3</v>
       </c>
       <c r="Z37" t="n">
-        <v>33.3</v>
+        <v>42.2</v>
       </c>
       <c r="AA37" t="n">
-        <v>42.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AB37" t="n">
-        <v>71.09999999999999</v>
+        <v>34.4</v>
       </c>
       <c r="AC37" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AD37" t="n">
         <v>34.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>42.2</v>
       </c>
       <c r="AE37" t="n">
         <v>46.7</v>
@@ -4300,7 +4300,7 @@
         <v>21.1</v>
       </c>
       <c r="AG37" t="n">
-        <v>50</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="38">
@@ -4355,46 +4355,46 @@
         <v>84.40000000000001</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.3</v>
+        <v>16.7</v>
       </c>
       <c r="R38" t="n">
         <v>61.1</v>
       </c>
       <c r="S38" t="n">
-        <v>76.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="T38" t="n">
         <v>71.09999999999999</v>
       </c>
       <c r="U38" t="n">
-        <v>22.2</v>
+        <v>82.2</v>
       </c>
       <c r="V38" t="n">
-        <v>82.2</v>
+        <v>27.8</v>
       </c>
       <c r="W38" t="n">
-        <v>25.6</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="X38" t="n">
-        <v>94.40000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="Y38" t="n">
-        <v>56.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Z38" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="AA38" t="n">
-        <v>64.40000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>55.6</v>
+        <v>5</v>
       </c>
       <c r="AC38" t="n">
-        <v>5</v>
+        <v>38.9</v>
       </c>
       <c r="AD38" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="AE38" t="n">
         <v>68.90000000000001</v>
@@ -4403,7 +4403,7 @@
         <v>32.2</v>
       </c>
       <c r="AG38" t="n">
-        <v>78.90000000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
       <c r="J39" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="K39" t="n">
         <v>28.9</v>
@@ -4458,37 +4458,37 @@
         <v>21.1</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.09999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="R39" t="n">
         <v>13.3</v>
       </c>
       <c r="S39" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="T39" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>22.2</v>
       </c>
       <c r="V39" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="W39" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="Z39" t="n">
         <v>22.2</v>
       </c>
-      <c r="W39" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="X39" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>91.09999999999999</v>
-      </c>
       <c r="AA39" t="n">
-        <v>22.2</v>
+        <v>95</v>
       </c>
       <c r="AB39" t="n">
         <v>95</v>
@@ -4506,7 +4506,7 @@
         <v>93.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>81.09999999999999</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="40">
@@ -4540,7 +4540,7 @@
         <v>44.4</v>
       </c>
       <c r="J40" t="n">
-        <v>33.3</v>
+        <v>35.6</v>
       </c>
       <c r="K40" t="n">
         <v>50</v>
@@ -4561,7 +4561,7 @@
         <v>95</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.8</v>
+        <v>17.8</v>
       </c>
       <c r="R40" t="n">
         <v>40</v>
@@ -4573,34 +4573,34 @@
         <v>26.7</v>
       </c>
       <c r="U40" t="n">
-        <v>41.1</v>
+        <v>33.3</v>
       </c>
       <c r="V40" t="n">
-        <v>33.3</v>
+        <v>58.9</v>
       </c>
       <c r="W40" t="n">
-        <v>58.9</v>
+        <v>8.9</v>
       </c>
       <c r="X40" t="n">
-        <v>8.9</v>
+        <v>73.3</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.3</v>
+        <v>18.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.9</v>
+        <v>77.8</v>
       </c>
       <c r="AA40" t="n">
-        <v>77.8</v>
+        <v>26.7</v>
       </c>
       <c r="AB40" t="n">
-        <v>26.7</v>
+        <v>44.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>44.4</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="AE40" t="n">
         <v>95</v>
@@ -4622,7 +4622,7 @@
         <v>90</v>
       </c>
       <c r="C41" t="n">
-        <v>71.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D41" t="n">
         <v>52.2</v>
@@ -4643,7 +4643,7 @@
         <v>32.2</v>
       </c>
       <c r="J41" t="n">
-        <v>22.2</v>
+        <v>24.4</v>
       </c>
       <c r="K41" t="n">
         <v>24.4</v>
@@ -4664,46 +4664,46 @@
         <v>36.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>73.3</v>
       </c>
       <c r="R41" t="n">
         <v>32.2</v>
       </c>
       <c r="S41" t="n">
-        <v>80</v>
+        <v>82.2</v>
       </c>
       <c r="T41" t="n">
         <v>47.8</v>
       </c>
       <c r="U41" t="n">
-        <v>54.4</v>
+        <v>8.9</v>
       </c>
       <c r="V41" t="n">
         <v>8.9</v>
       </c>
       <c r="W41" t="n">
-        <v>6.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="X41" t="n">
-        <v>65.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.8</v>
+        <v>72.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>72.2</v>
+        <v>57.8</v>
       </c>
       <c r="AA41" t="n">
-        <v>57.8</v>
+        <v>22.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>22.2</v>
+        <v>55.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>55.6</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>38.9</v>
+        <v>58.9</v>
       </c>
       <c r="AE41" t="n">
         <v>75.59999999999999</v>
@@ -4712,7 +4712,7 @@
         <v>35.6</v>
       </c>
       <c r="AG41" t="n">
-        <v>61.1</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -4746,7 +4746,7 @@
         <v>83.3</v>
       </c>
       <c r="J42" t="n">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="K42" t="n">
         <v>70</v>
@@ -4767,46 +4767,46 @@
         <v>12.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>95</v>
+        <v>51.1</v>
       </c>
       <c r="R42" t="n">
         <v>23.3</v>
       </c>
       <c r="S42" t="n">
-        <v>13.3</v>
+        <v>7.8</v>
       </c>
       <c r="T42" t="n">
         <v>95</v>
       </c>
       <c r="U42" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="V42" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="X42" t="n">
         <v>16.7</v>
       </c>
-      <c r="V42" t="n">
-        <v>84.40000000000001</v>
-      </c>
-      <c r="W42" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>46.7</v>
-      </c>
       <c r="Y42" t="n">
-        <v>16.7</v>
+        <v>42.2</v>
       </c>
       <c r="Z42" t="n">
-        <v>42.2</v>
+        <v>47.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>47.8</v>
+        <v>67.8</v>
       </c>
       <c r="AB42" t="n">
-        <v>67.8</v>
+        <v>95</v>
       </c>
       <c r="AC42" t="n">
-        <v>95</v>
+        <v>37.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>85.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="AE42" t="n">
         <v>56.7</v>
@@ -4815,7 +4815,7 @@
         <v>90</v>
       </c>
       <c r="AG42" t="n">
-        <v>56.7</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="43">
@@ -4828,7 +4828,7 @@
         <v>38.9</v>
       </c>
       <c r="C43" t="n">
-        <v>63.3</v>
+        <v>62.2</v>
       </c>
       <c r="D43" t="n">
         <v>61.1</v>
@@ -4870,7 +4870,7 @@
         <v>72.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.3</v>
+        <v>87.8</v>
       </c>
       <c r="R43" t="n">
         <v>34.4</v>
@@ -4882,34 +4882,34 @@
         <v>73.3</v>
       </c>
       <c r="U43" t="n">
-        <v>17.8</v>
+        <v>8.9</v>
       </c>
       <c r="V43" t="n">
-        <v>8.9</v>
+        <v>46.7</v>
       </c>
       <c r="W43" t="n">
-        <v>47.8</v>
+        <v>30</v>
       </c>
       <c r="X43" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AA43" t="n">
         <v>30</v>
       </c>
-      <c r="Y43" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>33.3</v>
-      </c>
       <c r="AB43" t="n">
-        <v>30</v>
+        <v>57.8</v>
       </c>
       <c r="AC43" t="n">
-        <v>57.8</v>
+        <v>44.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>25.6</v>
+        <v>31.1</v>
       </c>
       <c r="AE43" t="n">
         <v>40</v>
@@ -4918,7 +4918,7 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AG43" t="n">
-        <v>25.6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="44">
@@ -4931,7 +4931,7 @@
         <v>38.9</v>
       </c>
       <c r="C44" t="n">
-        <v>80</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D44" t="n">
         <v>55.6</v>
@@ -4952,7 +4952,7 @@
         <v>12.2</v>
       </c>
       <c r="J44" t="n">
-        <v>42.2</v>
+        <v>44.4</v>
       </c>
       <c r="K44" t="n">
         <v>35.6</v>
@@ -4973,55 +4973,55 @@
         <v>53.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>42.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="R44" t="n">
         <v>8.9</v>
       </c>
       <c r="S44" t="n">
-        <v>70</v>
+        <v>67.8</v>
       </c>
       <c r="T44" t="n">
         <v>53.3</v>
       </c>
       <c r="U44" t="n">
-        <v>45.6</v>
+        <v>8.9</v>
       </c>
       <c r="V44" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="W44" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AD44" t="n">
         <v>8.9</v>
       </c>
-      <c r="W44" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="X44" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>14.4</v>
-      </c>
       <c r="AE44" t="n">
-        <v>80</v>
+        <v>77.8</v>
       </c>
       <c r="AF44" t="n">
         <v>33.3</v>
       </c>
       <c r="AG44" t="n">
-        <v>58.9</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="45">
@@ -5034,7 +5034,7 @@
         <v>76.7</v>
       </c>
       <c r="C45" t="n">
-        <v>74.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D45" t="n">
         <v>43.3</v>
@@ -5076,46 +5076,46 @@
         <v>44.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>60</v>
+        <v>87.8</v>
       </c>
       <c r="R45" t="n">
         <v>82.2</v>
       </c>
       <c r="S45" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="T45" t="n">
         <v>36.7</v>
       </c>
       <c r="U45" t="n">
-        <v>28.9</v>
+        <v>18.9</v>
       </c>
       <c r="V45" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="AD45" t="n">
         <v>18.9</v>
-      </c>
-      <c r="W45" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>21.1</v>
       </c>
       <c r="AE45" t="n">
         <v>57.8</v>
@@ -5124,7 +5124,7 @@
         <v>50</v>
       </c>
       <c r="AG45" t="n">
-        <v>38.9</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="46">
@@ -5179,46 +5179,46 @@
         <v>38.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.1</v>
+        <v>60</v>
       </c>
       <c r="R46" t="n">
         <v>93.3</v>
       </c>
       <c r="S46" t="n">
-        <v>91.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="T46" t="n">
         <v>8.9</v>
       </c>
       <c r="U46" t="n">
-        <v>68.90000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="V46" t="n">
-        <v>48.9</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="W46" t="n">
-        <v>78.90000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="X46" t="n">
-        <v>14.4</v>
+        <v>95</v>
       </c>
       <c r="Y46" t="n">
-        <v>95</v>
+        <v>7.8</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.8</v>
+        <v>53.3</v>
       </c>
       <c r="AA46" t="n">
-        <v>53.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AB46" t="n">
-        <v>84.40000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.2</v>
+        <v>5</v>
       </c>
       <c r="AD46" t="n">
-        <v>36.7</v>
+        <v>26.7</v>
       </c>
       <c r="AE46" t="n">
         <v>87.8</v>
@@ -5227,7 +5227,7 @@
         <v>11.1</v>
       </c>
       <c r="AG46" t="n">
-        <v>85.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -662,7 +662,7 @@
         <v>26.7</v>
       </c>
       <c r="V2" t="n">
-        <v>67.8</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>25.6</v>
@@ -686,7 +686,7 @@
         <v>45.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>65.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AE2" t="n">
         <v>33.3</v>
@@ -765,7 +765,7 @@
         <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>63.3</v>
+        <v>51.1</v>
       </c>
       <c r="W3" t="n">
         <v>80</v>
@@ -789,7 +789,7 @@
         <v>50</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.4</v>
+        <v>27.8</v>
       </c>
       <c r="AE3" t="n">
         <v>85.59999999999999</v>
@@ -798,7 +798,7 @@
         <v>15.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>67.8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -868,7 +868,7 @@
         <v>50</v>
       </c>
       <c r="V4" t="n">
-        <v>33.3</v>
+        <v>76.7</v>
       </c>
       <c r="W4" t="n">
         <v>82.2</v>
@@ -892,7 +892,7 @@
         <v>70</v>
       </c>
       <c r="AD4" t="n">
-        <v>76.7</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AE4" t="n">
         <v>46.7</v>
@@ -901,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="5">
@@ -971,7 +971,7 @@
         <v>87.8</v>
       </c>
       <c r="V5" t="n">
-        <v>35.6</v>
+        <v>63.3</v>
       </c>
       <c r="W5" t="n">
         <v>87.8</v>
@@ -995,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="AD5" t="n">
-        <v>70</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AE5" t="n">
         <v>95</v>
@@ -1004,7 +1004,7 @@
         <v>61.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>94.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>37.8</v>
       </c>
       <c r="V6" t="n">
-        <v>95</v>
+        <v>12.2</v>
       </c>
       <c r="W6" t="n">
         <v>46.7</v>
@@ -1098,7 +1098,7 @@
         <v>6.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>72.2</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
         <v>24.4</v>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>36.7</v>
       </c>
       <c r="W7" t="n">
         <v>46.7</v>
@@ -1201,7 +1201,7 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>58.9</v>
       </c>
       <c r="AE7" t="n">
         <v>28.9</v>
@@ -1210,7 +1210,7 @@
         <v>52.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>34.4</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="8">
@@ -1280,7 +1280,7 @@
         <v>52.2</v>
       </c>
       <c r="V8" t="n">
-        <v>75.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="W8" t="n">
         <v>22.2</v>
@@ -1304,7 +1304,7 @@
         <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>43.3</v>
       </c>
       <c r="AE8" t="n">
         <v>28.9</v>
@@ -1313,7 +1313,7 @@
         <v>77.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>27.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="9">
@@ -1383,7 +1383,7 @@
         <v>56.7</v>
       </c>
       <c r="V9" t="n">
-        <v>91.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="W9" t="n">
         <v>61.1</v>
@@ -1407,7 +1407,7 @@
         <v>62.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>11.1</v>
       </c>
       <c r="AE9" t="n">
         <v>41.1</v>
@@ -1486,7 +1486,7 @@
         <v>62.2</v>
       </c>
       <c r="V10" t="n">
-        <v>86.7</v>
+        <v>95</v>
       </c>
       <c r="W10" t="n">
         <v>95</v>
@@ -1510,7 +1510,7 @@
         <v>95</v>
       </c>
       <c r="AD10" t="n">
-        <v>93.3</v>
+        <v>95</v>
       </c>
       <c r="AE10" t="n">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>95</v>
       </c>
       <c r="AG10" t="n">
-        <v>25.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="11">
@@ -1589,7 +1589,7 @@
         <v>92.2</v>
       </c>
       <c r="V11" t="n">
-        <v>20</v>
+        <v>58.9</v>
       </c>
       <c r="W11" t="n">
         <v>5.6</v>
@@ -1613,7 +1613,7 @@
         <v>66.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>44.4</v>
+        <v>26.7</v>
       </c>
       <c r="AE11" t="n">
         <v>6.7</v>
@@ -1622,7 +1622,7 @@
         <v>95</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="12">
@@ -1692,7 +1692,7 @@
         <v>58.9</v>
       </c>
       <c r="V12" t="n">
-        <v>28.9</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="W12" t="n">
         <v>67.8</v>
@@ -1725,7 +1725,7 @@
         <v>25.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="V13" t="n">
-        <v>72.2</v>
+        <v>6.7</v>
       </c>
       <c r="W13" t="n">
         <v>35.6</v>
@@ -1819,7 +1819,7 @@
         <v>34.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AE13" t="n">
         <v>36.7</v>
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>78.90000000000001</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="14">
@@ -1898,7 +1898,7 @@
         <v>77.8</v>
       </c>
       <c r="V14" t="n">
-        <v>37.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="W14" t="n">
         <v>46.7</v>
@@ -1922,7 +1922,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>48.9</v>
+        <v>44.4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -1931,7 +1931,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2001,7 +2001,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>74.40000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="W15" t="n">
         <v>71.09999999999999</v>
@@ -2104,7 +2104,7 @@
         <v>73.3</v>
       </c>
       <c r="V16" t="n">
-        <v>24.4</v>
+        <v>33.3</v>
       </c>
       <c r="W16" t="n">
         <v>73.3</v>
@@ -2128,7 +2128,7 @@
         <v>47.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>57.8</v>
+        <v>55.6</v>
       </c>
       <c r="AE16" t="n">
         <v>32.2</v>
@@ -2137,7 +2137,7 @@
         <v>18.9</v>
       </c>
       <c r="AG16" t="n">
-        <v>52.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2207,7 +2207,7 @@
         <v>67.8</v>
       </c>
       <c r="V17" t="n">
-        <v>53.3</v>
+        <v>7.8</v>
       </c>
       <c r="W17" t="n">
         <v>63.3</v>
@@ -2231,7 +2231,7 @@
         <v>16.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>35.6</v>
+        <v>41.1</v>
       </c>
       <c r="AE17" t="n">
         <v>88.90000000000001</v>
@@ -2240,7 +2240,7 @@
         <v>13.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>84.40000000000001</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="18">
@@ -2310,7 +2310,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>80</v>
       </c>
       <c r="W18" t="n">
         <v>46.7</v>
@@ -2334,7 +2334,7 @@
         <v>28.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="AE18" t="n">
         <v>20</v>
@@ -2413,7 +2413,7 @@
         <v>95</v>
       </c>
       <c r="V19" t="n">
-        <v>65.59999999999999</v>
+        <v>38.9</v>
       </c>
       <c r="W19" t="n">
         <v>95</v>
@@ -2437,7 +2437,7 @@
         <v>28.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>64.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="AE19" t="n">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="20">
@@ -2516,7 +2516,7 @@
         <v>82.2</v>
       </c>
       <c r="V20" t="n">
-        <v>48.9</v>
+        <v>73.3</v>
       </c>
       <c r="W20" t="n">
         <v>76.7</v>
@@ -2540,7 +2540,7 @@
         <v>33.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>55.6</v>
+        <v>72.2</v>
       </c>
       <c r="AE20" t="n">
         <v>43.3</v>
@@ -2549,7 +2549,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>32.2</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="21">
@@ -2619,7 +2619,7 @@
         <v>75.59999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="W21" t="n">
         <v>15.6</v>
@@ -2722,7 +2722,7 @@
         <v>43.3</v>
       </c>
       <c r="V22" t="n">
-        <v>25.6</v>
+        <v>31.1</v>
       </c>
       <c r="W22" t="n">
         <v>46.7</v>
@@ -2746,7 +2746,7 @@
         <v>58.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>33.3</v>
+        <v>31.1</v>
       </c>
       <c r="AE22" t="n">
         <v>51.1</v>
@@ -2755,7 +2755,7 @@
         <v>27.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>43.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -2825,7 +2825,7 @@
         <v>72.2</v>
       </c>
       <c r="V23" t="n">
-        <v>83.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="W23" t="n">
         <v>46.7</v>
@@ -2849,7 +2849,7 @@
         <v>12.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>44.4</v>
+        <v>47.8</v>
       </c>
       <c r="AE23" t="n">
         <v>64.40000000000001</v>
@@ -2858,7 +2858,7 @@
         <v>43.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>56.7</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="24">
@@ -2928,7 +2928,7 @@
         <v>63.3</v>
       </c>
       <c r="V24" t="n">
-        <v>61.1</v>
+        <v>44.4</v>
       </c>
       <c r="W24" t="n">
         <v>58.9</v>
@@ -2952,7 +2952,7 @@
         <v>8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>75.59999999999999</v>
@@ -2961,7 +2961,7 @@
         <v>28.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>38.9</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="25">
@@ -3031,7 +3031,7 @@
         <v>35.6</v>
       </c>
       <c r="V25" t="n">
-        <v>17.8</v>
+        <v>60</v>
       </c>
       <c r="W25" t="n">
         <v>56.7</v>
@@ -3055,7 +3055,7 @@
         <v>93.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>78.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AE25" t="n">
         <v>84.40000000000001</v>
@@ -3064,7 +3064,7 @@
         <v>55.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>86.7</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3134,7 +3134,7 @@
         <v>31.1</v>
       </c>
       <c r="V26" t="n">
-        <v>40</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="W26" t="n">
         <v>33.3</v>
@@ -3158,7 +3158,7 @@
         <v>72.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>74.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="AE26" t="n">
         <v>66.7</v>
@@ -3237,7 +3237,7 @@
         <v>8.9</v>
       </c>
       <c r="V27" t="n">
-        <v>46.7</v>
+        <v>48.9</v>
       </c>
       <c r="W27" t="n">
         <v>26.7</v>
@@ -3261,7 +3261,7 @@
         <v>25.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>52.2</v>
+        <v>51.1</v>
       </c>
       <c r="AE27" t="n">
         <v>23.3</v>
@@ -3270,7 +3270,7 @@
         <v>23.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="28">
@@ -3340,7 +3340,7 @@
         <v>30</v>
       </c>
       <c r="V28" t="n">
-        <v>11.1</v>
+        <v>55.6</v>
       </c>
       <c r="W28" t="n">
         <v>46.7</v>
@@ -3364,7 +3364,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>37.8</v>
+        <v>38.9</v>
       </c>
       <c r="AE28" t="n">
         <v>95</v>
@@ -3373,7 +3373,7 @@
         <v>58.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>80</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3443,7 +3443,7 @@
         <v>8.9</v>
       </c>
       <c r="V29" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="W29" t="n">
         <v>18.9</v>
@@ -3476,7 +3476,7 @@
         <v>67.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>47.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="30">
@@ -3546,7 +3546,7 @@
         <v>90</v>
       </c>
       <c r="V30" t="n">
-        <v>78.90000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="W30" t="n">
         <v>93.3</v>
@@ -3570,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>26.7</v>
+        <v>31.1</v>
       </c>
       <c r="AE30" t="n">
         <v>51.1</v>
@@ -3579,7 +3579,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="n">
-        <v>31.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -3649,7 +3649,7 @@
         <v>45.6</v>
       </c>
       <c r="V31" t="n">
-        <v>5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="W31" t="n">
         <v>20</v>
@@ -3752,7 +3752,7 @@
         <v>8.9</v>
       </c>
       <c r="V32" t="n">
-        <v>95</v>
+        <v>16.7</v>
       </c>
       <c r="W32" t="n">
         <v>7.8</v>
@@ -3776,7 +3776,7 @@
         <v>5</v>
       </c>
       <c r="AD32" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="AE32" t="n">
         <v>80</v>
@@ -3785,7 +3785,7 @@
         <v>7.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>90</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="33">
@@ -3855,7 +3855,7 @@
         <v>54.4</v>
       </c>
       <c r="V33" t="n">
-        <v>57.8</v>
+        <v>42.2</v>
       </c>
       <c r="W33" t="n">
         <v>5</v>
@@ -3879,7 +3879,7 @@
         <v>14.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>14.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE33" t="n">
         <v>11.1</v>
@@ -3888,7 +3888,7 @@
         <v>72.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="34">
@@ -3958,7 +3958,7 @@
         <v>28.9</v>
       </c>
       <c r="V34" t="n">
-        <v>15.6</v>
+        <v>43.3</v>
       </c>
       <c r="W34" t="n">
         <v>88.90000000000001</v>
@@ -3982,7 +3982,7 @@
         <v>82.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>81.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="AE34" t="n">
         <v>71.09999999999999</v>
@@ -3991,7 +3991,7 @@
         <v>46.7</v>
       </c>
       <c r="AG34" t="n">
-        <v>74.40000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -4061,7 +4061,7 @@
         <v>8.9</v>
       </c>
       <c r="V35" t="n">
-        <v>42.2</v>
+        <v>5</v>
       </c>
       <c r="W35" t="n">
         <v>82.2</v>
@@ -4085,7 +4085,7 @@
         <v>51.1</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.3</v>
+        <v>5</v>
       </c>
       <c r="AE35" t="n">
         <v>17.8</v>
@@ -4094,7 +4094,7 @@
         <v>54.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4164,7 +4164,7 @@
         <v>8.9</v>
       </c>
       <c r="V36" t="n">
-        <v>95</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="W36" t="n">
         <v>5</v>
@@ -4188,7 +4188,7 @@
         <v>54.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>20</v>
+        <v>15.6</v>
       </c>
       <c r="AE36" t="n">
         <v>18.9</v>
@@ -4197,7 +4197,7 @@
         <v>46.7</v>
       </c>
       <c r="AG36" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="37">
@@ -4267,7 +4267,7 @@
         <v>95</v>
       </c>
       <c r="V37" t="n">
-        <v>51.1</v>
+        <v>13.3</v>
       </c>
       <c r="W37" t="n">
         <v>86.7</v>
@@ -4291,7 +4291,7 @@
         <v>21.1</v>
       </c>
       <c r="AD37" t="n">
-        <v>34.4</v>
+        <v>36.7</v>
       </c>
       <c r="AE37" t="n">
         <v>46.7</v>
@@ -4300,7 +4300,7 @@
         <v>21.1</v>
       </c>
       <c r="AG37" t="n">
-        <v>45.6</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="38">
@@ -4370,7 +4370,7 @@
         <v>82.2</v>
       </c>
       <c r="V38" t="n">
-        <v>27.8</v>
+        <v>26.7</v>
       </c>
       <c r="W38" t="n">
         <v>94.40000000000001</v>
@@ -4394,7 +4394,7 @@
         <v>38.9</v>
       </c>
       <c r="AD38" t="n">
-        <v>66.7</v>
+        <v>63.3</v>
       </c>
       <c r="AE38" t="n">
         <v>68.90000000000001</v>
@@ -4403,7 +4403,7 @@
         <v>32.2</v>
       </c>
       <c r="AG38" t="n">
-        <v>70</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="39">
@@ -4473,7 +4473,7 @@
         <v>22.2</v>
       </c>
       <c r="V39" t="n">
-        <v>88.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="W39" t="n">
         <v>12.2</v>
@@ -4506,7 +4506,7 @@
         <v>93.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>92.2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -4576,7 +4576,7 @@
         <v>33.3</v>
       </c>
       <c r="V40" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
       <c r="W40" t="n">
         <v>8.9</v>
@@ -4600,7 +4600,7 @@
         <v>80</v>
       </c>
       <c r="AD40" t="n">
-        <v>90</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AE40" t="n">
         <v>95</v>
@@ -4679,7 +4679,7 @@
         <v>8.9</v>
       </c>
       <c r="V41" t="n">
-        <v>8.9</v>
+        <v>34.4</v>
       </c>
       <c r="W41" t="n">
         <v>65.59999999999999</v>
@@ -4703,7 +4703,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
       <c r="AE41" t="n">
         <v>75.59999999999999</v>
@@ -4782,7 +4782,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="V42" t="n">
-        <v>92.2</v>
+        <v>86.7</v>
       </c>
       <c r="W42" t="n">
         <v>46.7</v>
@@ -4806,7 +4806,7 @@
         <v>37.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>87.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="AE42" t="n">
         <v>56.7</v>
@@ -4815,7 +4815,7 @@
         <v>90</v>
       </c>
       <c r="AG42" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="43">
@@ -4885,7 +4885,7 @@
         <v>8.9</v>
       </c>
       <c r="V43" t="n">
-        <v>46.7</v>
+        <v>51.1</v>
       </c>
       <c r="W43" t="n">
         <v>30</v>
@@ -4909,7 +4909,7 @@
         <v>44.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>31.1</v>
+        <v>23.3</v>
       </c>
       <c r="AE43" t="n">
         <v>40</v>
@@ -4988,7 +4988,7 @@
         <v>8.9</v>
       </c>
       <c r="V44" t="n">
-        <v>33.3</v>
+        <v>22.2</v>
       </c>
       <c r="W44" t="n">
         <v>73.3</v>
@@ -5012,7 +5012,7 @@
         <v>18.9</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.9</v>
+        <v>13.3</v>
       </c>
       <c r="AE44" t="n">
         <v>77.8</v>
@@ -5021,7 +5021,7 @@
         <v>33.3</v>
       </c>
       <c r="AG44" t="n">
-        <v>54.4</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="45">
@@ -5091,7 +5091,7 @@
         <v>18.9</v>
       </c>
       <c r="V45" t="n">
-        <v>11.1</v>
+        <v>20</v>
       </c>
       <c r="W45" t="n">
         <v>32.2</v>
@@ -5115,7 +5115,7 @@
         <v>56.7</v>
       </c>
       <c r="AD45" t="n">
-        <v>18.9</v>
+        <v>22.2</v>
       </c>
       <c r="AE45" t="n">
         <v>57.8</v>
@@ -5194,7 +5194,7 @@
         <v>48.9</v>
       </c>
       <c r="V46" t="n">
-        <v>81.09999999999999</v>
+        <v>5</v>
       </c>
       <c r="W46" t="n">
         <v>14.4</v>
@@ -5218,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="AD46" t="n">
-        <v>26.7</v>
+        <v>33.3</v>
       </c>
       <c r="AE46" t="n">
         <v>87.8</v>
@@ -5227,7 +5227,7 @@
         <v>11.1</v>
       </c>
       <c r="AG46" t="n">
-        <v>75.59999999999999</v>
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/output/comp_percentile_rank_cat.xlsx
+++ b/output/comp_percentile_rank_cat.xlsx
@@ -689,7 +689,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>33.3</v>
+        <v>31.1</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
@@ -792,7 +792,7 @@
         <v>27.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>85.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AF3" t="n">
         <v>15.6</v>
@@ -895,7 +895,7 @@
         <v>88.90000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>46.7</v>
+        <v>42.2</v>
       </c>
       <c r="AF4" t="n">
         <v>70</v>
@@ -1004,7 +1004,7 @@
         <v>61.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>91.09999999999999</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1101,7 @@
         <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>24.4</v>
+        <v>26.7</v>
       </c>
       <c r="AF6" t="n">
         <v>5.6</v>
@@ -1204,7 +1204,7 @@
         <v>58.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>28.9</v>
+        <v>31.1</v>
       </c>
       <c r="AF7" t="n">
         <v>52.2</v>
@@ -1307,7 +1307,7 @@
         <v>43.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>28.9</v>
+        <v>25.6</v>
       </c>
       <c r="AF8" t="n">
         <v>77.8</v>
@@ -1410,7 +1410,7 @@
         <v>11.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>41.1</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
         <v>82.2</v>
@@ -1622,7 +1622,7 @@
         <v>95</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1719,13 +1719,13 @@
         <v>85.59999999999999</v>
       </c>
       <c r="AE12" t="n">
-        <v>68.90000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="AF12" t="n">
         <v>25.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>86.7</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1822,13 +1822,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>36.7</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>76.7</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1925,7 +1925,7 @@
         <v>44.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AF14" t="n">
         <v>94.40000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>93.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>92.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AF15" t="n">
         <v>12.2</v>
@@ -2131,13 +2131,13 @@
         <v>55.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>32.2</v>
+        <v>33.3</v>
       </c>
       <c r="AF16" t="n">
         <v>18.9</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="17">
@@ -2234,13 +2234,13 @@
         <v>41.1</v>
       </c>
       <c r="AE17" t="n">
-        <v>88.90000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="AF17" t="n">
         <v>13.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>82.2</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="18">
@@ -2337,7 +2337,7 @@
         <v>18.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>21.1</v>
       </c>
       <c r="AF18" t="n">
         <v>41.1</v>
@@ -2543,13 +2543,13 @@
         <v>72.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>43.3</v>
+        <v>44.4</v>
       </c>
       <c r="AF20" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>45.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>81.09999999999999</v>
@@ -2749,13 +2749,13 @@
         <v>31.1</v>
       </c>
       <c r="AE22" t="n">
-        <v>51.1</v>
+        <v>53.3</v>
       </c>
       <c r="AF22" t="n">
         <v>27.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>40</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="23">
@@ -2852,7 +2852,7 @@
         <v>47.8</v>
       </c>
       <c r="AE23" t="n">
-        <v>64.40000000000001</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
         <v>43.3</v>
@@ -2955,13 +2955,13 @@
         <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>75.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AF24" t="n">
         <v>28.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>35.6</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="25">
@@ -3058,13 +3058,13 @@
         <v>88.90000000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>84.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="AF25" t="n">
         <v>55.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>91.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3161,13 +3161,13 @@
         <v>76.7</v>
       </c>
       <c r="AE26" t="n">
-        <v>66.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AF26" t="n">
         <v>38.9</v>
       </c>
       <c r="AG26" t="n">
-        <v>72.2</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3264,13 +3264,13 @@
         <v>51.1</v>
       </c>
       <c r="AE27" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="AF27" t="n">
         <v>23.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>38.9</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="28">
@@ -3373,7 +3373,7 @@
         <v>58.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>74.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3573,7 +3573,7 @@
         <v>31.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>51.1</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
         <v>80</v>
@@ -3682,7 +3682,7 @@
         <v>63.3</v>
       </c>
       <c r="AG31" t="n">
-        <v>18.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="32">
@@ -3779,13 +3779,13 @@
         <v>53.3</v>
       </c>
       <c r="AE32" t="n">
-        <v>80</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="AF32" t="n">
         <v>7.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>87.8</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3882,13 +3882,13 @@
         <v>7.8</v>
       </c>
       <c r="AE33" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="AF33" t="n">
         <v>72.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="34">
@@ -3985,7 +3985,7 @@
         <v>83.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>71.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="AF34" t="n">
         <v>46.7</v>
@@ -4088,13 +4088,13 @@
         <v>5</v>
       </c>
       <c r="AE35" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="n">
         <v>54.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36">
@@ -4191,7 +4191,7 @@
         <v>15.6</v>
       </c>
       <c r="AE36" t="n">
-        <v>18.9</v>
+        <v>15.6</v>
       </c>
       <c r="AF36" t="n">
         <v>46.7</v>
@@ -4397,7 +4397,7 @@
         <v>63.3</v>
       </c>
       <c r="AE38" t="n">
-        <v>68.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="AF38" t="n">
         <v>32.2</v>
@@ -4500,7 +4500,7 @@
         <v>95</v>
       </c>
       <c r="AE39" t="n">
-        <v>62.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AF39" t="n">
         <v>93.3</v>
@@ -4609,7 +4609,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="AG40" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -4809,7 +4809,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="AE42" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="AF42" t="n">
         <v>90</v>
@@ -4912,13 +4912,13 @@
         <v>23.3</v>
       </c>
       <c r="AE43" t="n">
-        <v>40</v>
+        <v>37.8</v>
       </c>
       <c r="AF43" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="AG43" t="n">
-        <v>23.3</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="44">
@@ -5021,7 +5021,7 @@
         <v>33.3</v>
       </c>
       <c r="AG44" t="n">
-        <v>48.9</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="45">
@@ -5118,13 +5118,13 @@
         <v>22.2</v>
       </c>
       <c r="AE45" t="n">
-        <v>57.8</v>
+        <v>61.1</v>
       </c>
       <c r="AF45" t="n">
         <v>50</v>
       </c>
       <c r="AG45" t="n">
-        <v>36.7</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="46">
@@ -5221,13 +5221,13 @@
         <v>33.3</v>
       </c>
       <c r="AE46" t="n">
-        <v>87.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AF46" t="n">
         <v>11.1</v>
       </c>
       <c r="AG46" t="n">
-        <v>77.8</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
   </sheetData>
